--- a/55 Commonwealth.xlsx
+++ b/55 Commonwealth.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minhv\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minhv\OneDrive\Documents\GitHub\cre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{729DE3C5-8EFB-4F0F-A3D1-E97A90561616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEDAB88E-A353-45F2-80CF-BF398088D266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="15840" activeTab="1" xr2:uid="{7A873A23-259D-4B7A-963D-AC41161A29D2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" activeTab="1" xr2:uid="{7A873A23-259D-4B7A-963D-AC41161A29D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sensitivity Calculation" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>Purchase Price</t>
   </si>
@@ -120,13 +120,19 @@
     <t>Exit Value</t>
   </si>
   <si>
-    <t>**Not accounting for selling broker fee.</t>
-  </si>
-  <si>
     <t>IRR</t>
   </si>
   <si>
     <t>ROIC</t>
+  </si>
+  <si>
+    <t>Equivalent Bond Yield</t>
+  </si>
+  <si>
+    <t>Discount Factor</t>
+  </si>
+  <si>
+    <t>**Not accounting for selling broker fee. Probably 5-6% of the selling price?</t>
   </si>
 </sst>
 </file>
@@ -395,7 +401,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -447,8 +453,6 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -470,6 +474,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -850,10 +859,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1173,8 +1178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{697FDD06-7325-47FF-B14A-6233C127E75E}">
   <dimension ref="B2:K23"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1199,13 +1204,13 @@
       <c r="C3" s="29">
         <v>400000</v>
       </c>
-      <c r="G3" s="42" t="s">
+      <c r="G3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="44"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="42"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
@@ -1243,7 +1248,7 @@
         <f>+C3+C4</f>
         <v>400000</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="43" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="16">
@@ -1272,7 +1277,7 @@
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="E6" s="46"/>
+      <c r="E6" s="44"/>
       <c r="F6" s="16">
         <f>+F7-0.1</f>
         <v>0.50000000000000011</v>
@@ -1305,7 +1310,7 @@
       <c r="C7" s="1">
         <v>2400</v>
       </c>
-      <c r="E7" s="46"/>
+      <c r="E7" s="44"/>
       <c r="F7" s="16">
         <f>+F8-0.1</f>
         <v>0.60000000000000009</v>
@@ -1338,7 +1343,7 @@
       <c r="C8" s="1">
         <v>250</v>
       </c>
-      <c r="E8" s="46"/>
+      <c r="E8" s="44"/>
       <c r="F8" s="16">
         <f>+F9-0.1</f>
         <v>0.70000000000000007</v>
@@ -1371,7 +1376,7 @@
       <c r="C9" s="1">
         <v>150</v>
       </c>
-      <c r="E9" s="46"/>
+      <c r="E9" s="44"/>
       <c r="F9" s="16">
         <f>+F10-0.1</f>
         <v>0.8</v>
@@ -1404,7 +1409,7 @@
       <c r="C10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="46"/>
+      <c r="E10" s="44"/>
       <c r="F10" s="16">
         <f>+C17</f>
         <v>0.9</v>
@@ -1437,7 +1442,7 @@
       <c r="C11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="47"/>
+      <c r="E11" s="45"/>
       <c r="F11" s="16">
         <f>+F10+0.1</f>
         <v>1</v>
@@ -1493,13 +1498,13 @@
         <f>+C7+SUM(C12:C13)</f>
         <v>2800</v>
       </c>
-      <c r="G14" s="42" t="s">
+      <c r="G14" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="44"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="42"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
@@ -1531,7 +1536,7 @@
       </c>
     </row>
     <row r="16" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E16" s="45" t="s">
+      <c r="E16" s="43" t="s">
         <v>4</v>
       </c>
       <c r="F16" s="16">
@@ -1566,7 +1571,7 @@
       <c r="C17" s="13">
         <v>0.9</v>
       </c>
-      <c r="E17" s="46"/>
+      <c r="E17" s="44"/>
       <c r="F17" s="16">
         <f t="shared" si="3"/>
         <v>0.50000000000000011</v>
@@ -1600,7 +1605,7 @@
         <f>+(C15*C17)*12</f>
         <v>25920</v>
       </c>
-      <c r="E18" s="46"/>
+      <c r="E18" s="44"/>
       <c r="F18" s="16">
         <f t="shared" si="3"/>
         <v>0.60000000000000009</v>
@@ -1634,7 +1639,7 @@
         <f>+C18/C5</f>
         <v>6.4799999999999996E-2</v>
       </c>
-      <c r="E19" s="46"/>
+      <c r="E19" s="44"/>
       <c r="F19" s="16">
         <f t="shared" si="3"/>
         <v>0.70000000000000007</v>
@@ -1661,7 +1666,7 @@
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="E20" s="46"/>
+      <c r="E20" s="44"/>
       <c r="F20" s="16">
         <f t="shared" si="3"/>
         <v>0.8</v>
@@ -1694,7 +1699,7 @@
       <c r="C21" s="31">
         <v>0.02</v>
       </c>
-      <c r="E21" s="46"/>
+      <c r="E21" s="44"/>
       <c r="F21" s="16">
         <f t="shared" si="3"/>
         <v>0.9</v>
@@ -1721,7 +1726,7 @@
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="E22" s="47"/>
+      <c r="E22" s="45"/>
       <c r="F22" s="16">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -1760,7 +1765,7 @@
     <mergeCell ref="E16:E22"/>
   </mergeCells>
   <conditionalFormatting sqref="G5:K11">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1772,7 +1777,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:K22">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1790,340 +1795,343 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB0454E-0A8B-4165-9454-0DD93CF26789}">
-  <dimension ref="B2:M12"/>
+  <dimension ref="B2:M18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.7109375" customWidth="1"/>
-    <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="11.5703125" customWidth="1"/>
-    <col min="10" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C2">
-        <v>2024</v>
-      </c>
-      <c r="D2">
-        <f t="shared" ref="D2:M2" si="0">+C2+1</f>
-        <v>2025</v>
-      </c>
-      <c r="E2">
-        <f t="shared" si="0"/>
-        <v>2026</v>
-      </c>
-      <c r="F2">
-        <f t="shared" si="0"/>
-        <v>2027</v>
-      </c>
-      <c r="G2">
-        <f t="shared" si="0"/>
-        <v>2028</v>
-      </c>
-      <c r="H2">
-        <f t="shared" si="0"/>
-        <v>2029</v>
-      </c>
-      <c r="I2">
-        <f t="shared" si="0"/>
-        <v>2030</v>
-      </c>
-      <c r="J2">
-        <f t="shared" si="0"/>
-        <v>2031</v>
-      </c>
-      <c r="K2">
-        <f t="shared" si="0"/>
-        <v>2032</v>
-      </c>
-      <c r="L2">
-        <f t="shared" si="0"/>
-        <v>2033</v>
-      </c>
-      <c r="M2">
-        <f t="shared" si="0"/>
-        <v>2034</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="B2" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C2" s="49">
         <f>+'Sensitivity Calculation'!C18</f>
         <v>25920</v>
       </c>
-      <c r="D3" s="2">
-        <f>+C3*(1+D4)</f>
+      <c r="D2" s="2">
+        <f>+C2*(1+D3)</f>
         <v>26308.799999999999</v>
       </c>
-      <c r="E3" s="2">
-        <f t="shared" ref="E3:M3" si="1">+D3*(1+E4)</f>
+      <c r="E2" s="2">
+        <f t="shared" ref="E2:M2" si="0">+D2*(1+E3)</f>
         <v>26703.431999999997</v>
       </c>
-      <c r="F3" s="2">
-        <f t="shared" si="1"/>
+      <c r="F2" s="2">
+        <f t="shared" si="0"/>
         <v>27103.983479999995</v>
       </c>
-      <c r="G3" s="2">
-        <f t="shared" si="1"/>
+      <c r="G2" s="2">
+        <f t="shared" si="0"/>
         <v>27510.543232199994</v>
       </c>
-      <c r="H3" s="2">
-        <f t="shared" si="1"/>
+      <c r="H2" s="2">
+        <f t="shared" si="0"/>
         <v>27923.201380682993</v>
       </c>
-      <c r="I3" s="2">
-        <f t="shared" si="1"/>
+      <c r="I2" s="2">
+        <f t="shared" si="0"/>
         <v>28342.049401393237</v>
       </c>
-      <c r="J3" s="2">
-        <f t="shared" si="1"/>
+      <c r="J2" s="2">
+        <f t="shared" si="0"/>
         <v>28767.180142414134</v>
       </c>
-      <c r="K3" s="2">
-        <f t="shared" si="1"/>
+      <c r="K2" s="2">
+        <f t="shared" si="0"/>
         <v>29198.687844550343</v>
       </c>
-      <c r="L3" s="2">
-        <f t="shared" si="1"/>
+      <c r="L2" s="2">
+        <f t="shared" si="0"/>
         <v>29636.668162218593</v>
       </c>
-      <c r="M3" s="2">
-        <f t="shared" si="1"/>
+      <c r="M2" s="2">
+        <f t="shared" si="0"/>
         <v>30081.218184651869</v>
       </c>
     </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="32">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E3" s="32">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F3" s="32">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G3" s="32">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H3" s="32">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="I3" s="32">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="J3" s="32">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K3" s="32">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="L3" s="32">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="M3" s="32">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="32">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="E4" s="32">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="F4" s="32">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G4" s="32">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="H4" s="32">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="I4" s="32">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="J4" s="32">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="K4" s="32">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="L4" s="32">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="M4" s="32">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="33" t="s">
+      <c r="B4" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C4" s="49">
         <f>+'Sensitivity Calculation'!C5</f>
         <v>400000</v>
       </c>
-      <c r="D5" s="2">
-        <f>+C5*(1+D6)</f>
+      <c r="D4" s="2">
+        <f t="shared" ref="D4:M4" si="1">+C4*(1+D5)</f>
         <v>404000</v>
       </c>
-      <c r="E5" s="2">
-        <f t="shared" ref="E5:M5" si="2">+D5*(1+E6)</f>
+      <c r="E4" s="2">
+        <f t="shared" si="1"/>
         <v>408040</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F4" s="2">
+        <f t="shared" si="1"/>
+        <v>412120.4</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="1"/>
+        <v>416241.60400000005</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" si="1"/>
+        <v>420404.02004000003</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" si="1"/>
+        <v>424608.06024040002</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" si="1"/>
+        <v>428854.14084280404</v>
+      </c>
+      <c r="K4" s="2">
+        <f t="shared" si="1"/>
+        <v>433142.68225123209</v>
+      </c>
+      <c r="L4" s="2">
+        <f t="shared" si="1"/>
+        <v>437474.10907374445</v>
+      </c>
+      <c r="M4" s="2">
+        <f t="shared" si="1"/>
+        <v>441848.8501644819</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="32">
+        <v>0.01</v>
+      </c>
+      <c r="E5" s="32">
+        <f>+D5</f>
+        <v>0.01</v>
+      </c>
+      <c r="F5" s="32">
+        <f t="shared" ref="F5:M5" si="2">+E5</f>
+        <v>0.01</v>
+      </c>
+      <c r="G5" s="32">
         <f t="shared" si="2"/>
-        <v>412120.4</v>
-      </c>
-      <c r="G5" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H5" s="32">
         <f t="shared" si="2"/>
-        <v>416241.60400000005</v>
-      </c>
-      <c r="H5" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="I5" s="32">
         <f t="shared" si="2"/>
-        <v>420404.02004000003</v>
-      </c>
-      <c r="I5" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J5" s="32">
         <f t="shared" si="2"/>
-        <v>424608.06024040002</v>
-      </c>
-      <c r="J5" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="K5" s="32">
         <f t="shared" si="2"/>
-        <v>428854.14084280404</v>
-      </c>
-      <c r="K5" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L5" s="32">
         <f t="shared" si="2"/>
-        <v>433142.68225123209</v>
-      </c>
-      <c r="L5" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="M5" s="32">
         <f t="shared" si="2"/>
-        <v>437474.10907374445</v>
-      </c>
-      <c r="M5" s="2">
-        <f t="shared" si="2"/>
-        <v>441848.8501644819</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="32">
-        <v>0.01</v>
-      </c>
-      <c r="E6" s="32">
-        <f>+D6</f>
-        <v>0.01</v>
-      </c>
-      <c r="F6" s="32">
-        <f t="shared" ref="F6:M6" si="3">+E6</f>
-        <v>0.01</v>
-      </c>
-      <c r="G6" s="32">
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="16">
+        <f>+C2/$C$4</f>
+        <v>6.4799999999999996E-2</v>
+      </c>
+      <c r="D6" s="16">
+        <f t="shared" ref="D6:M6" si="3">+D2/$C$4</f>
+        <v>6.5771999999999997E-2</v>
+      </c>
+      <c r="E6" s="16">
         <f t="shared" si="3"/>
-        <v>0.01</v>
-      </c>
-      <c r="H6" s="32">
+        <v>6.6758579999999998E-2</v>
+      </c>
+      <c r="F6" s="16">
         <f t="shared" si="3"/>
-        <v>0.01</v>
-      </c>
-      <c r="I6" s="32">
+        <v>6.7759958699999984E-2</v>
+      </c>
+      <c r="G6" s="16">
         <f t="shared" si="3"/>
-        <v>0.01</v>
-      </c>
-      <c r="J6" s="32">
+        <v>6.8776358080499991E-2</v>
+      </c>
+      <c r="H6" s="16">
         <f t="shared" si="3"/>
-        <v>0.01</v>
-      </c>
-      <c r="K6" s="32">
+        <v>6.9808003451707484E-2</v>
+      </c>
+      <c r="I6" s="16">
         <f t="shared" si="3"/>
-        <v>0.01</v>
-      </c>
-      <c r="L6" s="32">
+        <v>7.0855123503483095E-2</v>
+      </c>
+      <c r="J6" s="16">
         <f t="shared" si="3"/>
-        <v>0.01</v>
-      </c>
-      <c r="M6" s="32">
+        <v>7.1917950356035334E-2</v>
+      </c>
+      <c r="K6" s="16">
         <f t="shared" si="3"/>
-        <v>0.01</v>
+        <v>7.2996719611375854E-2</v>
+      </c>
+      <c r="L6" s="16">
+        <f t="shared" si="3"/>
+        <v>7.4091670405546484E-2</v>
+      </c>
+      <c r="M6" s="16">
+        <f t="shared" si="3"/>
+        <v>7.5203045461629675E-2</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="16">
-        <f>+C3/$C$5</f>
-        <v>6.4799999999999996E-2</v>
-      </c>
-      <c r="D7" s="16">
-        <f t="shared" ref="D7:M7" si="4">+D3/$C$5</f>
-        <v>6.5771999999999997E-2</v>
-      </c>
-      <c r="E7" s="16">
-        <f t="shared" si="4"/>
-        <v>6.6758579999999998E-2</v>
-      </c>
-      <c r="F7" s="16">
-        <f t="shared" si="4"/>
-        <v>6.7759958699999984E-2</v>
-      </c>
-      <c r="G7" s="16">
-        <f t="shared" si="4"/>
-        <v>6.8776358080499991E-2</v>
-      </c>
-      <c r="H7" s="16">
-        <f t="shared" si="4"/>
-        <v>6.9808003451707484E-2</v>
-      </c>
-      <c r="I7" s="16">
-        <f t="shared" si="4"/>
-        <v>7.0855123503483095E-2</v>
-      </c>
-      <c r="J7" s="16">
-        <f t="shared" si="4"/>
-        <v>7.1917950356035334E-2</v>
-      </c>
-      <c r="K7" s="16">
-        <f t="shared" si="4"/>
-        <v>7.2996719611375854E-2</v>
-      </c>
-      <c r="L7" s="16">
-        <f t="shared" si="4"/>
-        <v>7.4091670405546484E-2</v>
-      </c>
-      <c r="M7" s="16">
-        <f t="shared" si="4"/>
-        <v>7.5203045461629675E-2</v>
+        <v>30</v>
+      </c>
+      <c r="C7" s="46">
+        <v>0</v>
+      </c>
+      <c r="D7" s="46">
+        <f t="shared" ref="D7:M7" si="4">+C7+1</f>
+        <v>1</v>
+      </c>
+      <c r="E7" s="46">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F7" s="46">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="G7" s="46">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="H7" s="46">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="I7" s="46">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="J7" s="46">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="K7" s="46">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="L7" s="46">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="M7" s="46">
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="34">
-        <f>+C3*(1+((C2-$C$2)*$C$7))</f>
+      <c r="C8" s="50">
+        <f>+C2*(1+((C7-$C$7)*$C$11))</f>
         <v>25920</v>
       </c>
       <c r="D8" s="34">
-        <f>+(C8*(1+((D2-$C$2)*$C$7)))+D3</f>
-        <v>53908.415999999997</v>
+        <f>+(C8*(1+((D7)*$C$11)))+D2</f>
+        <v>53006.400000000001</v>
       </c>
       <c r="E8" s="34">
-        <f t="shared" ref="E8:M8" si="5">+(D8*(1+((E2-$C$2)*$C$7)))+E3</f>
-        <v>87598.378713599988</v>
+        <f>+(D8*(1+((E7)*$C$11)))+E2</f>
+        <v>82890.216</v>
       </c>
       <c r="F8" s="34">
-        <f t="shared" si="5"/>
-        <v>131731.48701552383</v>
+        <f>+(E8*(1+((F7)*$C$11)))+F2</f>
+        <v>117454.31892000001</v>
       </c>
       <c r="G8" s="34">
-        <f t="shared" si="5"/>
-        <v>193386.8316821476</v>
+        <f>+(F8*(1+((G7)*$C$11)))+G2</f>
+        <v>159059.38042260002</v>
       </c>
       <c r="H8" s="34">
-        <f t="shared" si="5"/>
-        <v>283967.36652784643</v>
+        <f>+(G8*(1+((H7)*$C$11)))+H2</f>
+        <v>210841.488866673</v>
       </c>
       <c r="I8" s="34">
-        <f t="shared" si="5"/>
-        <v>422715.92803526635</v>
+        <f>+(H8*(1+((I7)*$C$11)))+I2</f>
+        <v>277135.00626406737</v>
       </c>
       <c r="J8" s="34">
-        <f t="shared" si="5"/>
-        <v>643227.05313447735</v>
+        <f>+(I8*(1+((J7)*$C$11)))+J2</f>
+        <v>364100.5377219356</v>
       </c>
       <c r="K8" s="34">
-        <f t="shared" si="5"/>
-        <v>1005874.6453239408</v>
+        <f>+(J8*(1+((K7)*$C$11)))+K2</f>
+        <v>480683.35461975052</v>
       </c>
       <c r="L8" s="34">
-        <f t="shared" si="5"/>
-        <v>1622137.4066390814</v>
+        <f>+(K8*(1+((L7)*$C$11)))+L2</f>
+        <v>640104.52852930187</v>
       </c>
       <c r="M8" s="34">
-        <f t="shared" si="5"/>
-        <v>2703363.664325858</v>
+        <f>+(L8*(1+((M7)*$C$11)))+M2</f>
+        <v>862217.10527274443</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
@@ -2131,145 +2139,190 @@
         <v>26</v>
       </c>
       <c r="C9" s="28"/>
-      <c r="D9" s="2">
-        <f t="shared" ref="D9:L9" si="6">+D8+D5</f>
-        <v>457908.41599999997</v>
+      <c r="D9" s="49">
+        <f t="shared" ref="D9:L9" si="5">+D8+D4</f>
+        <v>457006.4</v>
       </c>
       <c r="E9" s="2">
+        <f t="shared" si="5"/>
+        <v>490930.21600000001</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="5"/>
+        <v>529574.71892000001</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="5"/>
+        <v>575300.98442260013</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="5"/>
+        <v>631245.50890667306</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="5"/>
+        <v>701743.0665044674</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="5"/>
+        <v>792954.67856473965</v>
+      </c>
+      <c r="K9" s="2">
+        <f t="shared" si="5"/>
+        <v>913826.03687098261</v>
+      </c>
+      <c r="L9" s="2">
+        <f t="shared" si="5"/>
+        <v>1077578.6376030464</v>
+      </c>
+      <c r="M9" s="2">
+        <f>+M8+M4</f>
+        <v>1304065.9554372262</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="3"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="32">
+        <v>0.03</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M12" s="27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="36"/>
+      <c r="D13" s="47">
+        <f>+(D9/$C$4)^(1/(D7))-1</f>
+        <v>0.14251600000000009</v>
+      </c>
+      <c r="E13" s="47">
+        <f>+(E9/$C$4)^(1/(E7))-1</f>
+        <v>0.10784725481448931</v>
+      </c>
+      <c r="F13" s="47">
+        <f>+(F9/$C$4)^(1/(F7))-1</f>
+        <v>9.8050762055626572E-2</v>
+      </c>
+      <c r="G13" s="47">
+        <f>+(G9/$C$4)^(1/(G7))-1</f>
+        <v>9.5112614175839605E-2</v>
+      </c>
+      <c r="H13" s="47">
+        <f>+(H9/$C$4)^(1/(H7))-1</f>
+        <v>9.5538544440271878E-2</v>
+      </c>
+      <c r="I13" s="47">
+        <f>+(I9/$C$4)^(1/(I7))-1</f>
+        <v>9.8212434003629889E-2</v>
+      </c>
+      <c r="J13" s="47">
+        <f>+(J9/$C$4)^(1/(J7))-1</f>
+        <v>0.10269519484449652</v>
+      </c>
+      <c r="K13" s="47">
+        <f>+(K9/$C$4)^(1/(K7))-1</f>
+        <v>0.10879291464535523</v>
+      </c>
+      <c r="L13" s="47">
+        <f>+(L9/$C$4)^(1/(L7))-1</f>
+        <v>0.11640300803478976</v>
+      </c>
+      <c r="M13" s="48">
+        <f>+(M9/$C$4)^(1/(M7))-1</f>
+        <v>0.12544417205745151</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="38">
+        <f>+D9/$C$4-1</f>
+        <v>0.14251600000000009</v>
+      </c>
+      <c r="E14" s="38">
+        <f t="shared" ref="E14:M14" si="6">+E9/$C$4-1</f>
+        <v>0.22732554000000005</v>
+      </c>
+      <c r="F14" s="38">
         <f t="shared" si="6"/>
-        <v>495638.37871359999</v>
-      </c>
-      <c r="F9" s="2">
+        <v>0.32393679730000002</v>
+      </c>
+      <c r="G14" s="38">
         <f t="shared" si="6"/>
-        <v>543851.88701552385</v>
-      </c>
-      <c r="G9" s="2">
+        <v>0.4382524610565004</v>
+      </c>
+      <c r="H14" s="38">
         <f t="shared" si="6"/>
-        <v>609628.43568214762</v>
-      </c>
-      <c r="H9" s="2">
+        <v>0.5781137722666827</v>
+      </c>
+      <c r="I14" s="38">
         <f t="shared" si="6"/>
-        <v>704371.38656784641</v>
-      </c>
-      <c r="I9" s="2">
+        <v>0.7543576662611684</v>
+      </c>
+      <c r="J14" s="38">
         <f t="shared" si="6"/>
-        <v>847323.98827566637</v>
-      </c>
-      <c r="J9" s="2">
+        <v>0.98238669641184906</v>
+      </c>
+      <c r="K14" s="38">
         <f t="shared" si="6"/>
-        <v>1072081.1939772815</v>
-      </c>
-      <c r="K9" s="2">
+        <v>1.2845650921774565</v>
+      </c>
+      <c r="L14" s="38">
         <f t="shared" si="6"/>
-        <v>1439017.3275751728</v>
-      </c>
-      <c r="L9" s="2">
+        <v>1.6939465940076159</v>
+      </c>
+      <c r="M14" s="39">
         <f t="shared" si="6"/>
-        <v>2059611.5157128258</v>
-      </c>
-      <c r="M9" s="2">
-        <f>+M8+M5</f>
-        <v>3145212.5144903399</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="M10" s="27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="37">
-        <f>+(D9/$C$5)^(1/(D2-$C$2))-1</f>
-        <v>0.14477103999999996</v>
-      </c>
-      <c r="E11" s="37">
-        <f t="shared" ref="E11:M11" si="7">+(E9/$C$5)^(1/(E2-$C$2))-1</f>
-        <v>0.11314686667303686</v>
-      </c>
-      <c r="F11" s="37">
-        <f t="shared" si="7"/>
-        <v>0.10783109132722646</v>
-      </c>
-      <c r="G11" s="37">
-        <f t="shared" si="7"/>
-        <v>0.11109528900305721</v>
-      </c>
-      <c r="H11" s="37">
-        <f t="shared" si="7"/>
-        <v>0.11982031739343668</v>
-      </c>
-      <c r="I11" s="37">
-        <f t="shared" si="7"/>
-        <v>0.13326528426356576</v>
-      </c>
-      <c r="J11" s="37">
-        <f t="shared" si="7"/>
-        <v>0.15124249587983241</v>
-      </c>
-      <c r="K11" s="37">
-        <f t="shared" si="7"/>
-        <v>0.17354771997411467</v>
-      </c>
-      <c r="L11" s="37">
-        <f t="shared" si="7"/>
-        <v>0.19972191237898995</v>
-      </c>
-      <c r="M11" s="38">
-        <f t="shared" si="7"/>
-        <v>0.22902014176423924</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="40">
-        <f>+D9/$C$5-1</f>
-        <v>0.14477103999999996</v>
-      </c>
-      <c r="E12" s="40">
-        <f t="shared" ref="E12:M12" si="8">+E9/$C$5-1</f>
-        <v>0.23909594678399992</v>
-      </c>
-      <c r="F12" s="40">
-        <f t="shared" si="8"/>
-        <v>0.35962971753880968</v>
-      </c>
-      <c r="G12" s="40">
-        <f t="shared" si="8"/>
-        <v>0.52407108920536905</v>
-      </c>
-      <c r="H12" s="40">
-        <f t="shared" si="8"/>
-        <v>0.76092846641961609</v>
-      </c>
-      <c r="I12" s="40">
-        <f t="shared" si="8"/>
-        <v>1.1183099706891659</v>
-      </c>
-      <c r="J12" s="40">
-        <f t="shared" si="8"/>
-        <v>1.6802029849432034</v>
-      </c>
-      <c r="K12" s="40">
-        <f t="shared" si="8"/>
-        <v>2.597543318937932</v>
-      </c>
-      <c r="L12" s="40">
-        <f t="shared" si="8"/>
-        <v>4.149028789282065</v>
-      </c>
-      <c r="M12" s="41">
-        <f t="shared" si="8"/>
-        <v>6.8630312862258496</v>
-      </c>
-    </row>
+        <v>2.2601648885930654</v>
+      </c>
+    </row>
+    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <conditionalFormatting sqref="D13:M13">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/55 Commonwealth.xlsx
+++ b/55 Commonwealth.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minhv\OneDrive\Documents\GitHub\cre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEDAB88E-A353-45F2-80CF-BF398088D266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52BE9906-B6C5-4A04-B25D-52DB34885BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" activeTab="1" xr2:uid="{7A873A23-259D-4B7A-963D-AC41161A29D2}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="43200" windowHeight="11340" xr2:uid="{7A873A23-259D-4B7A-963D-AC41161A29D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sensitivity Calculation" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -456,6 +456,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -474,11 +479,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1178,8 +1179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{697FDD06-7325-47FF-B14A-6233C127E75E}">
   <dimension ref="B2:K23"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1204,13 +1205,13 @@
       <c r="C3" s="29">
         <v>400000</v>
       </c>
-      <c r="G3" s="40" t="s">
+      <c r="G3" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="42"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="47"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
@@ -1248,7 +1249,7 @@
         <f>+C3+C4</f>
         <v>400000</v>
       </c>
-      <c r="E5" s="43" t="s">
+      <c r="E5" s="48" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="16">
@@ -1277,7 +1278,7 @@
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="E6" s="44"/>
+      <c r="E6" s="49"/>
       <c r="F6" s="16">
         <f>+F7-0.1</f>
         <v>0.50000000000000011</v>
@@ -1310,7 +1311,7 @@
       <c r="C7" s="1">
         <v>2400</v>
       </c>
-      <c r="E7" s="44"/>
+      <c r="E7" s="49"/>
       <c r="F7" s="16">
         <f>+F8-0.1</f>
         <v>0.60000000000000009</v>
@@ -1343,7 +1344,7 @@
       <c r="C8" s="1">
         <v>250</v>
       </c>
-      <c r="E8" s="44"/>
+      <c r="E8" s="49"/>
       <c r="F8" s="16">
         <f>+F9-0.1</f>
         <v>0.70000000000000007</v>
@@ -1376,7 +1377,7 @@
       <c r="C9" s="1">
         <v>150</v>
       </c>
-      <c r="E9" s="44"/>
+      <c r="E9" s="49"/>
       <c r="F9" s="16">
         <f>+F10-0.1</f>
         <v>0.8</v>
@@ -1409,7 +1410,7 @@
       <c r="C10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="44"/>
+      <c r="E10" s="49"/>
       <c r="F10" s="16">
         <f>+C17</f>
         <v>0.9</v>
@@ -1442,7 +1443,7 @@
       <c r="C11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="45"/>
+      <c r="E11" s="50"/>
       <c r="F11" s="16">
         <f>+F10+0.1</f>
         <v>1</v>
@@ -1498,13 +1499,13 @@
         <f>+C7+SUM(C12:C13)</f>
         <v>2800</v>
       </c>
-      <c r="G14" s="40" t="s">
+      <c r="G14" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="42"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="47"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
@@ -1536,7 +1537,7 @@
       </c>
     </row>
     <row r="16" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E16" s="43" t="s">
+      <c r="E16" s="48" t="s">
         <v>4</v>
       </c>
       <c r="F16" s="16">
@@ -1571,7 +1572,7 @@
       <c r="C17" s="13">
         <v>0.9</v>
       </c>
-      <c r="E17" s="44"/>
+      <c r="E17" s="49"/>
       <c r="F17" s="16">
         <f t="shared" si="3"/>
         <v>0.50000000000000011</v>
@@ -1605,7 +1606,7 @@
         <f>+(C15*C17)*12</f>
         <v>25920</v>
       </c>
-      <c r="E18" s="44"/>
+      <c r="E18" s="49"/>
       <c r="F18" s="16">
         <f t="shared" si="3"/>
         <v>0.60000000000000009</v>
@@ -1639,7 +1640,7 @@
         <f>+C18/C5</f>
         <v>6.4799999999999996E-2</v>
       </c>
-      <c r="E19" s="44"/>
+      <c r="E19" s="49"/>
       <c r="F19" s="16">
         <f t="shared" si="3"/>
         <v>0.70000000000000007</v>
@@ -1666,7 +1667,7 @@
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="E20" s="44"/>
+      <c r="E20" s="49"/>
       <c r="F20" s="16">
         <f t="shared" si="3"/>
         <v>0.8</v>
@@ -1699,7 +1700,7 @@
       <c r="C21" s="31">
         <v>0.02</v>
       </c>
-      <c r="E21" s="44"/>
+      <c r="E21" s="49"/>
       <c r="F21" s="16">
         <f t="shared" si="3"/>
         <v>0.9</v>
@@ -1726,7 +1727,7 @@
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="E22" s="45"/>
+      <c r="E22" s="50"/>
       <c r="F22" s="16">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -1795,10 +1796,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB0454E-0A8B-4165-9454-0DD93CF26789}">
-  <dimension ref="B2:M18"/>
+  <dimension ref="B2:N30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1809,398 +1810,427 @@
     <col min="4" max="4" width="12.5703125" customWidth="1"/>
     <col min="5" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>2024</v>
+      </c>
+      <c r="D2">
+        <f>+C2+1</f>
+        <v>2025</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:M2" si="0">+D2+1</f>
+        <v>2026</v>
+      </c>
+      <c r="F2">
+        <f t="shared" si="0"/>
+        <v>2027</v>
+      </c>
+      <c r="G2">
+        <f t="shared" si="0"/>
+        <v>2028</v>
+      </c>
+      <c r="H2">
+        <f t="shared" si="0"/>
+        <v>2029</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="0"/>
+        <v>2030</v>
+      </c>
+      <c r="J2">
+        <f t="shared" si="0"/>
+        <v>2031</v>
+      </c>
+      <c r="K2">
+        <f t="shared" si="0"/>
+        <v>2032</v>
+      </c>
+      <c r="L2">
+        <f t="shared" si="0"/>
+        <v>2033</v>
+      </c>
+      <c r="M2">
+        <f t="shared" si="0"/>
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="49">
+      <c r="C3" s="43">
         <f>+'Sensitivity Calculation'!C18</f>
         <v>25920</v>
       </c>
-      <c r="D2" s="2">
-        <f>+C2*(1+D3)</f>
+      <c r="D3" s="2">
+        <f>+C3*(1+D4)</f>
         <v>26308.799999999999</v>
       </c>
-      <c r="E2" s="2">
-        <f t="shared" ref="E2:M2" si="0">+D2*(1+E3)</f>
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:M3" si="1">+D3*(1+E4)</f>
         <v>26703.431999999997</v>
       </c>
-      <c r="F2" s="2">
-        <f t="shared" si="0"/>
+      <c r="F3" s="2">
+        <f t="shared" si="1"/>
         <v>27103.983479999995</v>
       </c>
-      <c r="G2" s="2">
-        <f t="shared" si="0"/>
+      <c r="G3" s="2">
+        <f t="shared" si="1"/>
         <v>27510.543232199994</v>
       </c>
-      <c r="H2" s="2">
-        <f t="shared" si="0"/>
+      <c r="H3" s="2">
+        <f t="shared" si="1"/>
         <v>27923.201380682993</v>
       </c>
-      <c r="I2" s="2">
-        <f t="shared" si="0"/>
+      <c r="I3" s="2">
+        <f t="shared" si="1"/>
         <v>28342.049401393237</v>
       </c>
-      <c r="J2" s="2">
-        <f t="shared" si="0"/>
+      <c r="J3" s="2">
+        <f t="shared" si="1"/>
         <v>28767.180142414134</v>
       </c>
-      <c r="K2" s="2">
-        <f t="shared" si="0"/>
+      <c r="K3" s="2">
+        <f t="shared" si="1"/>
         <v>29198.687844550343</v>
       </c>
-      <c r="L2" s="2">
-        <f t="shared" si="0"/>
+      <c r="L3" s="2">
+        <f t="shared" si="1"/>
         <v>29636.668162218593</v>
       </c>
-      <c r="M2" s="2">
-        <f t="shared" si="0"/>
+      <c r="M3" s="2">
+        <f t="shared" si="1"/>
         <v>30081.218184651869</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="12" t="s">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="32">
+      <c r="D4" s="32">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="E3" s="32">
+      <c r="E4" s="32">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="F3" s="32">
+      <c r="F4" s="32">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G3" s="32">
+      <c r="G4" s="32">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H3" s="32">
+      <c r="H4" s="32">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="I3" s="32">
+      <c r="I4" s="32">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="J3" s="32">
+      <c r="J4" s="32">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="K3" s="32">
+      <c r="K4" s="32">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="L3" s="32">
+      <c r="L4" s="32">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="M3" s="32">
+      <c r="M4" s="32">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="33" t="s">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="49">
+      <c r="C5" s="43">
         <f>+'Sensitivity Calculation'!C5</f>
         <v>400000</v>
       </c>
-      <c r="D4" s="2">
-        <f t="shared" ref="D4:M4" si="1">+C4*(1+D5)</f>
-        <v>404000</v>
-      </c>
-      <c r="E4" s="2">
-        <f t="shared" si="1"/>
-        <v>408040</v>
-      </c>
-      <c r="F4" s="2">
-        <f t="shared" si="1"/>
-        <v>412120.4</v>
-      </c>
-      <c r="G4" s="2">
-        <f t="shared" si="1"/>
-        <v>416241.60400000005</v>
-      </c>
-      <c r="H4" s="2">
-        <f t="shared" si="1"/>
-        <v>420404.02004000003</v>
-      </c>
-      <c r="I4" s="2">
-        <f t="shared" si="1"/>
-        <v>424608.06024040002</v>
-      </c>
-      <c r="J4" s="2">
-        <f t="shared" si="1"/>
-        <v>428854.14084280404</v>
-      </c>
-      <c r="K4" s="2">
-        <f t="shared" si="1"/>
-        <v>433142.68225123209</v>
-      </c>
-      <c r="L4" s="2">
-        <f t="shared" si="1"/>
-        <v>437474.10907374445</v>
-      </c>
-      <c r="M4" s="2">
-        <f t="shared" si="1"/>
-        <v>441848.8501644819</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="12" t="s">
+      <c r="D5" s="2">
+        <f t="shared" ref="D5:M5" si="2">+C5*(1+D6)</f>
+        <v>412000</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="2"/>
+        <v>424360</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="2"/>
+        <v>437090.8</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="2"/>
+        <v>450203.52399999998</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" si="2"/>
+        <v>463709.62971999997</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="2"/>
+        <v>477620.91861160001</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="2"/>
+        <v>491949.54616994801</v>
+      </c>
+      <c r="K5" s="2">
+        <f t="shared" si="2"/>
+        <v>506708.03255504643</v>
+      </c>
+      <c r="L5" s="2">
+        <f t="shared" si="2"/>
+        <v>521909.27353169787</v>
+      </c>
+      <c r="M5" s="2">
+        <f t="shared" si="2"/>
+        <v>537566.55173764878</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="32">
-        <v>0.01</v>
-      </c>
-      <c r="E5" s="32">
-        <f>+D5</f>
-        <v>0.01</v>
-      </c>
-      <c r="F5" s="32">
-        <f t="shared" ref="F5:M5" si="2">+E5</f>
-        <v>0.01</v>
-      </c>
-      <c r="G5" s="32">
-        <f t="shared" si="2"/>
-        <v>0.01</v>
-      </c>
-      <c r="H5" s="32">
-        <f t="shared" si="2"/>
-        <v>0.01</v>
-      </c>
-      <c r="I5" s="32">
-        <f t="shared" si="2"/>
-        <v>0.01</v>
-      </c>
-      <c r="J5" s="32">
-        <f t="shared" si="2"/>
-        <v>0.01</v>
-      </c>
-      <c r="K5" s="32">
-        <f t="shared" si="2"/>
-        <v>0.01</v>
-      </c>
-      <c r="L5" s="32">
-        <f t="shared" si="2"/>
-        <v>0.01</v>
-      </c>
-      <c r="M5" s="32">
-        <f t="shared" si="2"/>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="D6" s="32">
+        <v>0.03</v>
+      </c>
+      <c r="E6" s="32">
+        <f>+D6</f>
+        <v>0.03</v>
+      </c>
+      <c r="F6" s="32">
+        <f t="shared" ref="F6:M6" si="3">+E6</f>
+        <v>0.03</v>
+      </c>
+      <c r="G6" s="32">
+        <f t="shared" si="3"/>
+        <v>0.03</v>
+      </c>
+      <c r="H6" s="32">
+        <f t="shared" si="3"/>
+        <v>0.03</v>
+      </c>
+      <c r="I6" s="32">
+        <f t="shared" si="3"/>
+        <v>0.03</v>
+      </c>
+      <c r="J6" s="32">
+        <f t="shared" si="3"/>
+        <v>0.03</v>
+      </c>
+      <c r="K6" s="32">
+        <f t="shared" si="3"/>
+        <v>0.03</v>
+      </c>
+      <c r="L6" s="32">
+        <f t="shared" si="3"/>
+        <v>0.03</v>
+      </c>
+      <c r="M6" s="32">
+        <f t="shared" si="3"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="16">
-        <f>+C2/$C$4</f>
+      <c r="C7" s="16">
+        <f>+C3/$C$5</f>
         <v>6.4799999999999996E-2</v>
       </c>
-      <c r="D6" s="16">
-        <f t="shared" ref="D6:M6" si="3">+D2/$C$4</f>
+      <c r="D7" s="16">
+        <f t="shared" ref="D7:M7" si="4">+D3/$C$5</f>
         <v>6.5771999999999997E-2</v>
       </c>
-      <c r="E6" s="16">
-        <f t="shared" si="3"/>
+      <c r="E7" s="16">
+        <f t="shared" si="4"/>
         <v>6.6758579999999998E-2</v>
       </c>
-      <c r="F6" s="16">
-        <f t="shared" si="3"/>
+      <c r="F7" s="16">
+        <f t="shared" si="4"/>
         <v>6.7759958699999984E-2</v>
       </c>
-      <c r="G6" s="16">
-        <f t="shared" si="3"/>
+      <c r="G7" s="16">
+        <f t="shared" si="4"/>
         <v>6.8776358080499991E-2</v>
       </c>
-      <c r="H6" s="16">
-        <f t="shared" si="3"/>
+      <c r="H7" s="16">
+        <f t="shared" si="4"/>
         <v>6.9808003451707484E-2</v>
       </c>
-      <c r="I6" s="16">
-        <f t="shared" si="3"/>
+      <c r="I7" s="16">
+        <f t="shared" si="4"/>
         <v>7.0855123503483095E-2</v>
       </c>
-      <c r="J6" s="16">
-        <f t="shared" si="3"/>
+      <c r="J7" s="16">
+        <f t="shared" si="4"/>
         <v>7.1917950356035334E-2</v>
       </c>
-      <c r="K6" s="16">
-        <f t="shared" si="3"/>
+      <c r="K7" s="16">
+        <f t="shared" si="4"/>
         <v>7.2996719611375854E-2</v>
       </c>
-      <c r="L6" s="16">
-        <f t="shared" si="3"/>
+      <c r="L7" s="16">
+        <f t="shared" si="4"/>
         <v>7.4091670405546484E-2</v>
       </c>
-      <c r="M6" s="16">
-        <f t="shared" si="3"/>
+      <c r="M7" s="16">
+        <f t="shared" si="4"/>
         <v>7.5203045461629675E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="46">
+      <c r="C8" s="40">
         <v>0</v>
       </c>
-      <c r="D7" s="46">
-        <f t="shared" ref="D7:M7" si="4">+C7+1</f>
+      <c r="D8" s="40">
+        <f t="shared" ref="D8:M8" si="5">+C8+1</f>
         <v>1</v>
       </c>
-      <c r="E7" s="46">
-        <f t="shared" si="4"/>
+      <c r="E8" s="40">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="F7" s="46">
-        <f t="shared" si="4"/>
+      <c r="F8" s="40">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="G7" s="46">
-        <f t="shared" si="4"/>
+      <c r="G8" s="40">
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="H7" s="46">
-        <f t="shared" si="4"/>
+      <c r="H8" s="40">
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="I7" s="46">
-        <f t="shared" si="4"/>
+      <c r="I8" s="40">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="J7" s="46">
-        <f t="shared" si="4"/>
+      <c r="J8" s="40">
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="K7" s="46">
-        <f t="shared" si="4"/>
+      <c r="K8" s="40">
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="L7" s="46">
-        <f t="shared" si="4"/>
+      <c r="L8" s="40">
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="M7" s="46">
-        <f t="shared" si="4"/>
+      <c r="M8" s="40">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="50">
-        <f>+C2*(1+((C7-$C$7)*$C$11))</f>
+      <c r="C9" s="44">
+        <f>+C3*(1+((C8-$C$8)*$C$12))</f>
         <v>25920</v>
       </c>
-      <c r="D8" s="34">
-        <f>+(C8*(1+((D7)*$C$11)))+D2</f>
-        <v>53006.400000000001</v>
-      </c>
-      <c r="E8" s="34">
-        <f>+(D8*(1+((E7)*$C$11)))+E2</f>
-        <v>82890.216</v>
-      </c>
-      <c r="F8" s="34">
-        <f>+(E8*(1+((F7)*$C$11)))+F2</f>
-        <v>117454.31892000001</v>
-      </c>
-      <c r="G8" s="34">
-        <f>+(F8*(1+((G7)*$C$11)))+G2</f>
-        <v>159059.38042260002</v>
-      </c>
-      <c r="H8" s="34">
-        <f>+(G8*(1+((H7)*$C$11)))+H2</f>
-        <v>210841.488866673</v>
-      </c>
-      <c r="I8" s="34">
-        <f>+(H8*(1+((I7)*$C$11)))+I2</f>
-        <v>277135.00626406737</v>
-      </c>
-      <c r="J8" s="34">
-        <f>+(I8*(1+((J7)*$C$11)))+J2</f>
-        <v>364100.5377219356</v>
-      </c>
-      <c r="K8" s="34">
-        <f>+(J8*(1+((K7)*$C$11)))+K2</f>
-        <v>480683.35461975052</v>
-      </c>
-      <c r="L8" s="34">
-        <f>+(K8*(1+((L7)*$C$11)))+L2</f>
-        <v>640104.52852930187</v>
-      </c>
-      <c r="M8" s="34">
-        <f>+(L8*(1+((M7)*$C$11)))+M2</f>
-        <v>862217.10527274443</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
+      <c r="D9" s="34">
+        <f>+(C9*(1+$C$12)+D3)</f>
+        <v>53913.599999999999</v>
+      </c>
+      <c r="E9" s="34">
+        <f t="shared" ref="E9:M9" si="6">+(D9*(1+$C$12)+E3)</f>
+        <v>84121.415999999997</v>
+      </c>
+      <c r="F9" s="34">
+        <f t="shared" si="6"/>
+        <v>116693.29151999998</v>
+      </c>
+      <c r="G9" s="34">
+        <f t="shared" si="6"/>
+        <v>151788.89870099997</v>
+      </c>
+      <c r="H9" s="34">
+        <f t="shared" si="6"/>
+        <v>189578.37849724796</v>
+      </c>
+      <c r="I9" s="34">
+        <f t="shared" si="6"/>
+        <v>230243.02250096231</v>
+      </c>
+      <c r="J9" s="34">
+        <f t="shared" si="6"/>
+        <v>273975.999105939</v>
+      </c>
+      <c r="K9" s="34">
+        <f t="shared" si="6"/>
+        <v>320983.12689237535</v>
+      </c>
+      <c r="L9" s="34">
+        <f t="shared" si="6"/>
+        <v>371483.69830259832</v>
+      </c>
+      <c r="M9" s="34">
+        <f t="shared" si="6"/>
+        <v>425711.35687691905</v>
+      </c>
+      <c r="N9" s="51"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="49">
-        <f t="shared" ref="D9:L9" si="5">+D8+D4</f>
-        <v>457006.4</v>
-      </c>
-      <c r="E9" s="2">
-        <f t="shared" si="5"/>
-        <v>490930.21600000001</v>
-      </c>
-      <c r="F9" s="2">
-        <f t="shared" si="5"/>
-        <v>529574.71892000001</v>
-      </c>
-      <c r="G9" s="2">
-        <f t="shared" si="5"/>
-        <v>575300.98442260013</v>
-      </c>
-      <c r="H9" s="2">
-        <f t="shared" si="5"/>
-        <v>631245.50890667306</v>
-      </c>
-      <c r="I9" s="2">
-        <f t="shared" si="5"/>
-        <v>701743.0665044674</v>
-      </c>
-      <c r="J9" s="2">
-        <f t="shared" si="5"/>
-        <v>792954.67856473965</v>
-      </c>
-      <c r="K9" s="2">
-        <f t="shared" si="5"/>
-        <v>913826.03687098261</v>
-      </c>
-      <c r="L9" s="2">
-        <f t="shared" si="5"/>
-        <v>1077578.6376030464</v>
-      </c>
-      <c r="M9" s="2">
-        <f>+M8+M4</f>
-        <v>1304065.9554372262</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="3"/>
       <c r="C10" s="28"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="32">
-        <v>0.03</v>
-      </c>
+      <c r="D10" s="43">
+        <f t="shared" ref="D10:L10" si="7">+D9+D5</f>
+        <v>465913.59999999998</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="7"/>
+        <v>508481.41599999997</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="7"/>
+        <v>553784.09152000002</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="7"/>
+        <v>601992.422701</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="7"/>
+        <v>653288.0082172479</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="7"/>
+        <v>707863.94111256232</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="7"/>
+        <v>765925.54527588701</v>
+      </c>
+      <c r="K10" s="2">
+        <f t="shared" si="7"/>
+        <v>827691.15944742179</v>
+      </c>
+      <c r="L10" s="2">
+        <f t="shared" si="7"/>
+        <v>893392.97183429613</v>
+      </c>
+      <c r="M10" s="2">
+        <f>+M9+M5</f>
+        <v>963277.90861456783</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="3"/>
+      <c r="C11" s="28"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -2212,106 +2242,281 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="M12" s="27" t="s">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="32">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M13" s="27" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="35" t="s">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="47">
-        <f>+(D9/$C$4)^(1/(D7))-1</f>
-        <v>0.14251600000000009</v>
-      </c>
-      <c r="E13" s="47">
-        <f>+(E9/$C$4)^(1/(E7))-1</f>
-        <v>0.10784725481448931</v>
-      </c>
-      <c r="F13" s="47">
-        <f>+(F9/$C$4)^(1/(F7))-1</f>
-        <v>9.8050762055626572E-2</v>
-      </c>
-      <c r="G13" s="47">
-        <f>+(G9/$C$4)^(1/(G7))-1</f>
-        <v>9.5112614175839605E-2</v>
-      </c>
-      <c r="H13" s="47">
-        <f>+(H9/$C$4)^(1/(H7))-1</f>
-        <v>9.5538544440271878E-2</v>
-      </c>
-      <c r="I13" s="47">
-        <f>+(I9/$C$4)^(1/(I7))-1</f>
-        <v>9.8212434003629889E-2</v>
-      </c>
-      <c r="J13" s="47">
-        <f>+(J9/$C$4)^(1/(J7))-1</f>
-        <v>0.10269519484449652</v>
-      </c>
-      <c r="K13" s="47">
-        <f>+(K9/$C$4)^(1/(K7))-1</f>
-        <v>0.10879291464535523</v>
-      </c>
-      <c r="L13" s="47">
-        <f>+(L9/$C$4)^(1/(L7))-1</f>
-        <v>0.11640300803478976</v>
-      </c>
-      <c r="M13" s="48">
-        <f>+(M9/$C$4)^(1/(M7))-1</f>
-        <v>0.12544417205745151</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="37" t="s">
+      <c r="C14" s="36"/>
+      <c r="D14" s="41">
+        <f t="shared" ref="D14:M14" si="8">+(D10/$C$5)^(1/(D8))-1</f>
+        <v>0.16478400000000004</v>
+      </c>
+      <c r="E14" s="41">
+        <f t="shared" si="8"/>
+        <v>0.12747662503486068</v>
+      </c>
+      <c r="F14" s="41">
+        <f t="shared" si="8"/>
+        <v>0.11453444439497917</v>
+      </c>
+      <c r="G14" s="41">
+        <f t="shared" si="8"/>
+        <v>0.10759951874445139</v>
+      </c>
+      <c r="H14" s="41">
+        <f t="shared" si="8"/>
+        <v>0.10308489842129887</v>
+      </c>
+      <c r="I14" s="41">
+        <f t="shared" si="8"/>
+        <v>9.9803168161532341E-2</v>
+      </c>
+      <c r="J14" s="41">
+        <f t="shared" si="8"/>
+        <v>9.7245465455436442E-2</v>
+      </c>
+      <c r="K14" s="41">
+        <f t="shared" si="8"/>
+        <v>9.5156135643802431E-2</v>
+      </c>
+      <c r="L14" s="41">
+        <f t="shared" si="8"/>
+        <v>9.3391863640887696E-2</v>
+      </c>
+      <c r="M14" s="42">
+        <f t="shared" si="8"/>
+        <v>9.1865543344687772E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="38">
-        <f>+D9/$C$4-1</f>
-        <v>0.14251600000000009</v>
-      </c>
-      <c r="E14" s="38">
-        <f t="shared" ref="E14:M14" si="6">+E9/$C$4-1</f>
-        <v>0.22732554000000005</v>
-      </c>
-      <c r="F14" s="38">
-        <f t="shared" si="6"/>
-        <v>0.32393679730000002</v>
-      </c>
-      <c r="G14" s="38">
-        <f t="shared" si="6"/>
-        <v>0.4382524610565004</v>
-      </c>
-      <c r="H14" s="38">
-        <f t="shared" si="6"/>
-        <v>0.5781137722666827</v>
-      </c>
-      <c r="I14" s="38">
-        <f t="shared" si="6"/>
-        <v>0.7543576662611684</v>
-      </c>
-      <c r="J14" s="38">
-        <f t="shared" si="6"/>
-        <v>0.98238669641184906</v>
-      </c>
-      <c r="K14" s="38">
-        <f t="shared" si="6"/>
-        <v>1.2845650921774565</v>
-      </c>
-      <c r="L14" s="38">
-        <f t="shared" si="6"/>
-        <v>1.6939465940076159</v>
-      </c>
-      <c r="M14" s="39">
-        <f t="shared" si="6"/>
-        <v>2.2601648885930654</v>
-      </c>
-    </row>
-    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="38">
+        <f>+D10/$C$5-1</f>
+        <v>0.16478400000000004</v>
+      </c>
+      <c r="E15" s="38">
+        <f t="shared" ref="E15:M15" si="9">+E10/$C$5-1</f>
+        <v>0.27120353999999991</v>
+      </c>
+      <c r="F15" s="38">
+        <f t="shared" si="9"/>
+        <v>0.38446022880000008</v>
+      </c>
+      <c r="G15" s="38">
+        <f t="shared" si="9"/>
+        <v>0.50498105675249993</v>
+      </c>
+      <c r="H15" s="38">
+        <f t="shared" si="9"/>
+        <v>0.63322002054311977</v>
+      </c>
+      <c r="I15" s="38">
+        <f t="shared" si="9"/>
+        <v>0.76965985278140581</v>
+      </c>
+      <c r="J15" s="38">
+        <f t="shared" si="9"/>
+        <v>0.91481386318971758</v>
+      </c>
+      <c r="K15" s="38">
+        <f t="shared" si="9"/>
+        <v>1.0692278986185544</v>
+      </c>
+      <c r="L15" s="38">
+        <f t="shared" si="9"/>
+        <v>1.2334824295857403</v>
+      </c>
+      <c r="M15" s="39">
+        <f t="shared" si="9"/>
+        <v>1.4081947715364196</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="43"/>
+    </row>
+    <row r="19" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="2"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="43"/>
+      <c r="N30" s="2"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D13:M13">
+  <conditionalFormatting sqref="D14:M14">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>

--- a/55 Commonwealth.xlsx
+++ b/55 Commonwealth.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minhv\OneDrive\Documents\GitHub\cre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52BE9906-B6C5-4A04-B25D-52DB34885BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D796B0-B172-463A-A8D2-548A05009DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="43200" windowHeight="11340" xr2:uid="{7A873A23-259D-4B7A-963D-AC41161A29D2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" activeTab="1" xr2:uid="{7A873A23-259D-4B7A-963D-AC41161A29D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sensitivity Calculation" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>Purchase Price</t>
   </si>
@@ -133,6 +133,18 @@
   </si>
   <si>
     <t>**Not accounting for selling broker fee. Probably 5-6% of the selling price?</t>
+  </si>
+  <si>
+    <t>Insurance</t>
+  </si>
+  <si>
+    <t>Less: Insurance</t>
+  </si>
+  <si>
+    <t>Less: Property Tax</t>
+  </si>
+  <si>
+    <t>Property Tax Rate</t>
   </si>
 </sst>
 </file>
@@ -143,7 +155,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,6 +188,11 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -191,7 +208,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -396,12 +413,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -479,7 +511,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="3" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -792,13 +831,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>96716</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>126756</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>183907</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>161193</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1177,10 +1216,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{697FDD06-7325-47FF-B14A-6233C127E75E}">
-  <dimension ref="B2:K23"/>
+  <dimension ref="B2:K25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16:K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1257,24 +1296,24 @@
         <v>0.40000000000000013</v>
       </c>
       <c r="G5" s="18">
-        <f>(+G$4*$F5*12/$C$5)</f>
-        <v>2.5200000000000011E-2</v>
+        <f>((+G$4*$F5*12)-$C$16-$C$20)/$C$5</f>
+        <v>1.0460000000000009E-2</v>
       </c>
       <c r="H5" s="19">
-        <f t="shared" ref="H5:K11" si="1">(+H$4*$F5*12/$C$5)</f>
-        <v>2.700000000000001E-2</v>
+        <f t="shared" ref="H5:K11" si="1">((+H$4*$F5*12)-$C$16-$C$20)/$C$5</f>
+        <v>1.2260000000000009E-2</v>
       </c>
       <c r="I5" s="19">
         <f t="shared" si="1"/>
-        <v>2.880000000000001E-2</v>
+        <v>1.4060000000000008E-2</v>
       </c>
       <c r="J5" s="19">
         <f t="shared" si="1"/>
-        <v>3.0600000000000009E-2</v>
+        <v>1.586000000000001E-2</v>
       </c>
       <c r="K5" s="20">
         <f t="shared" si="1"/>
-        <v>3.2400000000000012E-2</v>
+        <v>1.7660000000000012E-2</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
@@ -1284,24 +1323,24 @@
         <v>0.50000000000000011</v>
       </c>
       <c r="G6" s="21">
-        <f t="shared" ref="G6:G11" si="2">(+G$4*$F6*12/$C$5)</f>
-        <v>3.1500000000000007E-2</v>
+        <f t="shared" ref="G6:K11" si="2">((+G$4*$F6*12)-$C$16-$C$20)/$C$5</f>
+        <v>1.6760000000000008E-2</v>
       </c>
       <c r="H6" s="22">
         <f t="shared" si="1"/>
-        <v>3.3750000000000009E-2</v>
+        <v>1.901000000000001E-2</v>
       </c>
       <c r="I6" s="22">
         <f t="shared" si="1"/>
-        <v>3.6000000000000011E-2</v>
+        <v>2.1260000000000008E-2</v>
       </c>
       <c r="J6" s="22">
         <f t="shared" si="1"/>
-        <v>3.8250000000000006E-2</v>
+        <v>2.351000000000001E-2</v>
       </c>
       <c r="K6" s="23">
         <f t="shared" si="1"/>
-        <v>4.0500000000000008E-2</v>
+        <v>2.5760000000000009E-2</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
@@ -1318,23 +1357,23 @@
       </c>
       <c r="G7" s="21">
         <f t="shared" si="2"/>
-        <v>3.7800000000000007E-2</v>
+        <v>2.3060000000000008E-2</v>
       </c>
       <c r="H7" s="22">
         <f t="shared" si="1"/>
-        <v>4.0500000000000008E-2</v>
+        <v>2.5760000000000009E-2</v>
       </c>
       <c r="I7" s="22">
         <f t="shared" si="1"/>
-        <v>4.3200000000000009E-2</v>
+        <v>2.846000000000001E-2</v>
       </c>
       <c r="J7" s="22">
         <f t="shared" si="1"/>
-        <v>4.590000000000001E-2</v>
+        <v>3.1160000000000011E-2</v>
       </c>
       <c r="K7" s="23">
         <f t="shared" si="1"/>
-        <v>4.8600000000000011E-2</v>
+        <v>3.3860000000000008E-2</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
@@ -1342,7 +1381,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="1">
-        <v>250</v>
+        <v>217</v>
       </c>
       <c r="E8" s="49"/>
       <c r="F8" s="16">
@@ -1351,23 +1390,23 @@
       </c>
       <c r="G8" s="21">
         <f t="shared" si="2"/>
-        <v>4.4100000000000007E-2</v>
+        <v>2.9360000000000008E-2</v>
       </c>
       <c r="H8" s="22">
         <f t="shared" si="1"/>
-        <v>4.7250000000000007E-2</v>
+        <v>3.2510000000000011E-2</v>
       </c>
       <c r="I8" s="22">
         <f t="shared" si="1"/>
-        <v>5.0400000000000007E-2</v>
+        <v>3.5660000000000011E-2</v>
       </c>
       <c r="J8" s="22">
         <f t="shared" si="1"/>
-        <v>5.3550000000000007E-2</v>
+        <v>3.8810000000000011E-2</v>
       </c>
       <c r="K8" s="23">
         <f t="shared" si="1"/>
-        <v>5.6700000000000007E-2</v>
+        <v>4.1960000000000011E-2</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
@@ -1384,23 +1423,23 @@
       </c>
       <c r="G9" s="21">
         <f t="shared" si="2"/>
-        <v>5.04E-2</v>
+        <v>3.5659999999999997E-2</v>
       </c>
       <c r="H9" s="22">
         <f t="shared" si="1"/>
-        <v>5.3999999999999999E-2</v>
+        <v>3.9260000000000003E-2</v>
       </c>
       <c r="I9" s="22">
         <f t="shared" si="1"/>
-        <v>5.7599999999999998E-2</v>
+        <v>4.2860000000000002E-2</v>
       </c>
       <c r="J9" s="22">
         <f t="shared" si="1"/>
-        <v>6.1199999999999997E-2</v>
+        <v>4.6460000000000001E-2</v>
       </c>
       <c r="K9" s="23">
         <f t="shared" si="1"/>
-        <v>6.4799999999999996E-2</v>
+        <v>5.006E-2</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
@@ -1412,28 +1451,28 @@
       </c>
       <c r="E10" s="49"/>
       <c r="F10" s="16">
-        <f>+C17</f>
+        <f>+C18</f>
         <v>0.9</v>
       </c>
       <c r="G10" s="21">
         <f t="shared" si="2"/>
-        <v>5.67E-2</v>
+        <v>4.1959999999999997E-2</v>
       </c>
       <c r="H10" s="22">
         <f t="shared" si="1"/>
-        <v>6.0749999999999998E-2</v>
+        <v>4.6010000000000002E-2</v>
       </c>
       <c r="I10" s="22">
         <f t="shared" si="1"/>
-        <v>6.4799999999999996E-2</v>
+        <v>5.006E-2</v>
       </c>
       <c r="J10" s="22">
         <f t="shared" si="1"/>
-        <v>6.8849999999999995E-2</v>
+        <v>5.4109999999999998E-2</v>
       </c>
       <c r="K10" s="23">
         <f t="shared" si="1"/>
-        <v>7.2900000000000006E-2</v>
+        <v>5.8160000000000003E-2</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
@@ -1450,30 +1489,30 @@
       </c>
       <c r="G11" s="24">
         <f t="shared" si="2"/>
-        <v>6.3E-2</v>
+        <v>4.8259999999999997E-2</v>
       </c>
       <c r="H11" s="25">
         <f t="shared" si="1"/>
-        <v>6.7500000000000004E-2</v>
+        <v>5.2760000000000001E-2</v>
       </c>
       <c r="I11" s="25">
         <f t="shared" si="1"/>
-        <v>7.1999999999999995E-2</v>
+        <v>5.7259999999999998E-2</v>
       </c>
       <c r="J11" s="25">
         <f t="shared" si="1"/>
-        <v>7.6499999999999999E-2</v>
+        <v>6.1760000000000002E-2</v>
       </c>
       <c r="K11" s="26">
         <f t="shared" si="1"/>
-        <v>8.1000000000000003E-2</v>
+        <v>6.6259999999999999E-2</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="54">
         <f>+IF(LOWER(C10)="no",C9,C8)</f>
         <v>150</v>
       </c>
@@ -1482,22 +1521,22 @@
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="54">
         <f>+IF(LOWER(C11)="no",C8,0)</f>
-        <v>250</v>
+        <v>217</v>
       </c>
       <c r="K13" s="27"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="54">
         <f>+C7+SUM(C12:C13)</f>
-        <v>2800</v>
+        <v>2767</v>
       </c>
       <c r="G14" s="45" t="s">
         <v>1</v>
@@ -1508,10 +1547,10 @@
       <c r="K14" s="47"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="11">
         <f>+IF(LOWER(C10)="no", 0, -C8)+IF(LOWER(C11)="no",0,-C9)+C7</f>
         <v>2400</v>
       </c>
@@ -1537,220 +1576,234 @@
       </c>
     </row>
     <row r="16" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="52">
+        <v>1600</v>
+      </c>
       <c r="E16" s="48" t="s">
         <v>4</v>
       </c>
       <c r="F16" s="16">
-        <f t="shared" ref="F16:F22" si="3">+F5</f>
+        <f>+F5</f>
         <v>0.40000000000000013</v>
       </c>
       <c r="G16" s="18">
-        <f>(+G$4*$F16*12/$C$5)+$C$21</f>
-        <v>4.5200000000000011E-2</v>
+        <f>+G5+$C$24</f>
+        <v>3.0460000000000008E-2</v>
       </c>
       <c r="H16" s="19">
-        <f t="shared" ref="H16:K22" si="4">(+H$4*$F16*12/$C$5)+$C$21</f>
-        <v>4.7000000000000014E-2</v>
+        <f t="shared" ref="H16:K16" si="3">+H5+$C$24</f>
+        <v>3.2260000000000011E-2</v>
       </c>
       <c r="I16" s="19">
-        <f t="shared" si="4"/>
-        <v>4.880000000000001E-2</v>
+        <f t="shared" si="3"/>
+        <v>3.4060000000000007E-2</v>
       </c>
       <c r="J16" s="19">
-        <f t="shared" si="4"/>
-        <v>5.0600000000000006E-2</v>
+        <f t="shared" si="3"/>
+        <v>3.586000000000001E-2</v>
       </c>
       <c r="K16" s="20">
-        <f t="shared" si="4"/>
-        <v>5.2400000000000016E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="13">
-        <v>0.9</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>3.7660000000000013E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E17" s="49"/>
       <c r="F17" s="16">
-        <f t="shared" si="3"/>
+        <f>+F6</f>
         <v>0.50000000000000011</v>
       </c>
       <c r="G17" s="21">
-        <f t="shared" ref="G17:G22" si="5">(+G$4*$F17*12/$C$5)+$C$21</f>
-        <v>5.1500000000000004E-2</v>
+        <f t="shared" ref="G17:K17" si="4">+G6+$C$24</f>
+        <v>3.6760000000000008E-2</v>
       </c>
       <c r="H17" s="22">
         <f t="shared" si="4"/>
-        <v>5.3750000000000006E-2</v>
+        <v>3.901000000000001E-2</v>
       </c>
       <c r="I17" s="22">
         <f t="shared" si="4"/>
-        <v>5.6000000000000008E-2</v>
+        <v>4.1260000000000005E-2</v>
       </c>
       <c r="J17" s="22">
         <f t="shared" si="4"/>
-        <v>5.825000000000001E-2</v>
+        <v>4.3510000000000007E-2</v>
       </c>
       <c r="K17" s="23">
         <f t="shared" si="4"/>
-        <v>6.0500000000000012E-2</v>
+        <v>4.5760000000000009E-2</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="15">
-        <f>+(C15*C17)*12</f>
-        <v>25920</v>
+      <c r="B18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="13">
+        <v>0.9</v>
       </c>
       <c r="E18" s="49"/>
       <c r="F18" s="16">
-        <f t="shared" si="3"/>
+        <f>+F7</f>
         <v>0.60000000000000009</v>
       </c>
       <c r="G18" s="21">
+        <f t="shared" ref="G18:K18" si="5">+G7+$C$24</f>
+        <v>4.3060000000000008E-2</v>
+      </c>
+      <c r="H18" s="22">
         <f t="shared" si="5"/>
-        <v>5.7800000000000004E-2</v>
-      </c>
-      <c r="H18" s="22">
-        <f t="shared" si="4"/>
-        <v>6.0500000000000012E-2</v>
+        <v>4.5760000000000009E-2</v>
       </c>
       <c r="I18" s="22">
-        <f t="shared" si="4"/>
-        <v>6.3200000000000006E-2</v>
+        <f t="shared" si="5"/>
+        <v>4.846000000000001E-2</v>
       </c>
       <c r="J18" s="22">
-        <f t="shared" si="4"/>
-        <v>6.5900000000000014E-2</v>
+        <f t="shared" si="5"/>
+        <v>5.1160000000000011E-2</v>
       </c>
       <c r="K18" s="23">
-        <f t="shared" si="4"/>
-        <v>6.8600000000000008E-2</v>
+        <f t="shared" si="5"/>
+        <v>5.3860000000000005E-2</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="17">
-        <f>+C18/C5</f>
-        <v>6.4799999999999996E-2</v>
+      <c r="B19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="51">
+        <f>+C16</f>
+        <v>1600</v>
       </c>
       <c r="E19" s="49"/>
       <c r="F19" s="16">
-        <f t="shared" si="3"/>
+        <f>+F8</f>
         <v>0.70000000000000007</v>
       </c>
       <c r="G19" s="21">
-        <f t="shared" si="5"/>
-        <v>6.4100000000000004E-2</v>
+        <f t="shared" ref="G19:K19" si="6">+G8+$C$24</f>
+        <v>4.9360000000000008E-2</v>
       </c>
       <c r="H19" s="22">
-        <f t="shared" si="4"/>
-        <v>6.7250000000000004E-2</v>
+        <f t="shared" si="6"/>
+        <v>5.2510000000000015E-2</v>
       </c>
       <c r="I19" s="22">
-        <f t="shared" si="4"/>
-        <v>7.0400000000000004E-2</v>
+        <f t="shared" si="6"/>
+        <v>5.5660000000000015E-2</v>
       </c>
       <c r="J19" s="22">
-        <f t="shared" si="4"/>
-        <v>7.3550000000000004E-2</v>
+        <f t="shared" si="6"/>
+        <v>5.8810000000000015E-2</v>
       </c>
       <c r="K19" s="23">
-        <f t="shared" si="4"/>
-        <v>7.6700000000000004E-2</v>
+        <f t="shared" si="6"/>
+        <v>6.1960000000000015E-2</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="51">
+        <f>+C5*C25</f>
+        <v>4296</v>
+      </c>
       <c r="E20" s="49"/>
       <c r="F20" s="16">
-        <f t="shared" si="3"/>
+        <f>+F9</f>
         <v>0.8</v>
       </c>
       <c r="G20" s="21">
-        <f t="shared" si="5"/>
-        <v>7.0400000000000004E-2</v>
+        <f>+G9+$C$24</f>
+        <v>5.5660000000000001E-2</v>
       </c>
       <c r="H20" s="22">
-        <f t="shared" si="4"/>
-        <v>7.3999999999999996E-2</v>
+        <f>+H9+$C$24</f>
+        <v>5.9260000000000007E-2</v>
       </c>
       <c r="I20" s="22">
-        <f t="shared" si="4"/>
-        <v>7.7600000000000002E-2</v>
+        <f>+I9+$C$24</f>
+        <v>6.2859999999999999E-2</v>
       </c>
       <c r="J20" s="22">
-        <f t="shared" si="4"/>
-        <v>8.1199999999999994E-2</v>
+        <f>+J9+$C$24</f>
+        <v>6.6460000000000005E-2</v>
       </c>
       <c r="K20" s="23">
-        <f t="shared" si="4"/>
-        <v>8.48E-2</v>
+        <f>+K9+$C$24</f>
+        <v>7.0059999999999997E-2</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="31">
-        <v>0.02</v>
+      <c r="B21" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="15">
+        <f>+((C15*C18)*12)-C19-C20</f>
+        <v>20024</v>
       </c>
       <c r="E21" s="49"/>
       <c r="F21" s="16">
-        <f t="shared" si="3"/>
+        <f>+F10</f>
         <v>0.9</v>
       </c>
       <c r="G21" s="21">
-        <f t="shared" si="5"/>
-        <v>7.6700000000000004E-2</v>
+        <f>+G10+$C$24</f>
+        <v>6.1960000000000001E-2</v>
       </c>
       <c r="H21" s="22">
-        <f t="shared" si="4"/>
-        <v>8.0750000000000002E-2</v>
+        <f>+H10+$C$24</f>
+        <v>6.6009999999999999E-2</v>
       </c>
       <c r="I21" s="22">
-        <f t="shared" si="4"/>
-        <v>8.48E-2</v>
+        <f>+I10+$C$24</f>
+        <v>7.0059999999999997E-2</v>
       </c>
       <c r="J21" s="22">
-        <f t="shared" si="4"/>
-        <v>8.8849999999999998E-2</v>
+        <f>+J10+$C$24</f>
+        <v>7.4109999999999995E-2</v>
       </c>
       <c r="K21" s="23">
-        <f t="shared" si="4"/>
-        <v>9.290000000000001E-2</v>
+        <f>+K10+$C$24</f>
+        <v>7.8160000000000007E-2</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="17">
+        <f>+C21/C5</f>
+        <v>5.006E-2</v>
+      </c>
       <c r="E22" s="50"/>
       <c r="F22" s="16">
-        <f t="shared" si="3"/>
+        <f>+F11</f>
         <v>1</v>
       </c>
       <c r="G22" s="24">
-        <f t="shared" si="5"/>
-        <v>8.3000000000000004E-2</v>
+        <f>+G11+$C$24</f>
+        <v>6.8260000000000001E-2</v>
       </c>
       <c r="H22" s="25">
-        <f t="shared" si="4"/>
-        <v>8.7500000000000008E-2</v>
+        <f>+H11+$C$24</f>
+        <v>7.2760000000000005E-2</v>
       </c>
       <c r="I22" s="25">
-        <f t="shared" si="4"/>
-        <v>9.1999999999999998E-2</v>
+        <f>+I11+$C$24</f>
+        <v>7.7259999999999995E-2</v>
       </c>
       <c r="J22" s="25">
-        <f t="shared" si="4"/>
-        <v>9.6500000000000002E-2</v>
+        <f>+J11+$C$24</f>
+        <v>8.1759999999999999E-2</v>
       </c>
       <c r="K22" s="26">
-        <f t="shared" si="4"/>
-        <v>0.10100000000000001</v>
+        <f>+K11+$C$24</f>
+        <v>8.6260000000000003E-2</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
@@ -1758,12 +1811,28 @@
         <v>20</v>
       </c>
     </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="31">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="31">
+        <v>1.074E-2</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="E16:E22"/>
     <mergeCell ref="G3:K3"/>
     <mergeCell ref="E5:E11"/>
     <mergeCell ref="G14:K14"/>
-    <mergeCell ref="E16:E22"/>
   </mergeCells>
   <conditionalFormatting sqref="G5:K11">
     <cfRule type="colorScale" priority="3">
@@ -1778,7 +1847,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:K22">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1796,10 +1865,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB0454E-0A8B-4165-9454-0DD93CF26789}">
-  <dimension ref="B2:N30"/>
+  <dimension ref="B2:N31"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1863,48 +1932,48 @@
         <v>21</v>
       </c>
       <c r="C3" s="43">
-        <f>+'Sensitivity Calculation'!C18</f>
-        <v>25920</v>
+        <f>+'Sensitivity Calculation'!C21</f>
+        <v>20024</v>
       </c>
       <c r="D3" s="2">
         <f>+C3*(1+D4)</f>
-        <v>26308.799999999999</v>
+        <v>20324.359999999997</v>
       </c>
       <c r="E3" s="2">
         <f t="shared" ref="E3:M3" si="1">+D3*(1+E4)</f>
-        <v>26703.431999999997</v>
+        <v>20629.225399999996</v>
       </c>
       <c r="F3" s="2">
         <f t="shared" si="1"/>
-        <v>27103.983479999995</v>
+        <v>20938.663780999992</v>
       </c>
       <c r="G3" s="2">
         <f t="shared" si="1"/>
-        <v>27510.543232199994</v>
+        <v>21252.743737714991</v>
       </c>
       <c r="H3" s="2">
         <f t="shared" si="1"/>
-        <v>27923.201380682993</v>
+        <v>21571.534893780714</v>
       </c>
       <c r="I3" s="2">
         <f t="shared" si="1"/>
-        <v>28342.049401393237</v>
+        <v>21895.107917187423</v>
       </c>
       <c r="J3" s="2">
         <f t="shared" si="1"/>
-        <v>28767.180142414134</v>
+        <v>22223.534535945233</v>
       </c>
       <c r="K3" s="2">
         <f t="shared" si="1"/>
-        <v>29198.687844550343</v>
+        <v>22556.887553984408</v>
       </c>
       <c r="L3" s="2">
         <f t="shared" si="1"/>
-        <v>29636.668162218593</v>
+        <v>22895.240867294171</v>
       </c>
       <c r="M3" s="2">
         <f t="shared" si="1"/>
-        <v>30081.218184651869</v>
+        <v>23238.669480303583</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
@@ -1943,312 +2012,342 @@
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="28">
+        <f>+C6*'Sensitivity Calculation'!$C$25</f>
+        <v>4296</v>
+      </c>
+      <c r="D5" s="28">
+        <f>+D6*'Sensitivity Calculation'!$C$25</f>
+        <v>5370</v>
+      </c>
+      <c r="E5" s="28">
+        <f>+E6*'Sensitivity Calculation'!$C$25</f>
+        <v>5531.0999999999995</v>
+      </c>
+      <c r="F5" s="28">
+        <f>+F6*'Sensitivity Calculation'!$C$25</f>
+        <v>5697.0329999999994</v>
+      </c>
+      <c r="G5" s="28">
+        <f>+G6*'Sensitivity Calculation'!$C$25</f>
+        <v>5867.9439899999998</v>
+      </c>
+      <c r="H5" s="28">
+        <f>+H6*'Sensitivity Calculation'!$C$25</f>
+        <v>6043.9823096999999</v>
+      </c>
+      <c r="I5" s="28">
+        <f>+I6*'Sensitivity Calculation'!$C$25</f>
+        <v>6225.301778991</v>
+      </c>
+      <c r="J5" s="28">
+        <f>+J6*'Sensitivity Calculation'!$C$25</f>
+        <v>6412.0608323607294</v>
+      </c>
+      <c r="K5" s="28">
+        <f>+K6*'Sensitivity Calculation'!$C$25</f>
+        <v>6604.4226573315518</v>
+      </c>
+      <c r="L5" s="28">
+        <f>+L6*'Sensitivity Calculation'!$C$25</f>
+        <v>6802.555337051499</v>
+      </c>
+      <c r="M5" s="28">
+        <f>+M6*'Sensitivity Calculation'!$C$25</f>
+        <v>7006.6319971630437</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="43">
+      <c r="C6" s="43">
         <f>+'Sensitivity Calculation'!C5</f>
         <v>400000</v>
       </c>
-      <c r="D5" s="2">
-        <f t="shared" ref="D5:M5" si="2">+C5*(1+D6)</f>
-        <v>412000</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="D6" s="2">
+        <f t="shared" ref="D6:M6" si="2">+C6*(1+D7)</f>
+        <v>500000</v>
+      </c>
+      <c r="E6" s="2">
         <f t="shared" si="2"/>
-        <v>424360</v>
-      </c>
-      <c r="F5" s="2">
+        <v>515000</v>
+      </c>
+      <c r="F6" s="2">
         <f t="shared" si="2"/>
-        <v>437090.8</v>
-      </c>
-      <c r="G5" s="2">
+        <v>530450</v>
+      </c>
+      <c r="G6" s="2">
         <f t="shared" si="2"/>
-        <v>450203.52399999998</v>
-      </c>
-      <c r="H5" s="2">
+        <v>546363.5</v>
+      </c>
+      <c r="H6" s="2">
         <f t="shared" si="2"/>
-        <v>463709.62971999997</v>
-      </c>
-      <c r="I5" s="2">
+        <v>562754.40500000003</v>
+      </c>
+      <c r="I6" s="2">
         <f t="shared" si="2"/>
-        <v>477620.91861160001</v>
-      </c>
-      <c r="J5" s="2">
+        <v>579637.03714999999</v>
+      </c>
+      <c r="J6" s="2">
         <f t="shared" si="2"/>
-        <v>491949.54616994801</v>
-      </c>
-      <c r="K5" s="2">
+        <v>597026.14826449996</v>
+      </c>
+      <c r="K6" s="2">
         <f t="shared" si="2"/>
-        <v>506708.03255504643</v>
-      </c>
-      <c r="L5" s="2">
+        <v>614936.93271243502</v>
+      </c>
+      <c r="L6" s="2">
         <f t="shared" si="2"/>
-        <v>521909.27353169787</v>
-      </c>
-      <c r="M5" s="2">
+        <v>633385.04069380811</v>
+      </c>
+      <c r="M6" s="2">
         <f t="shared" si="2"/>
-        <v>537566.55173764878</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="12" t="s">
+        <v>652386.59191462235</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D7" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="E7" s="32">
         <v>0.03</v>
       </c>
-      <c r="E6" s="32">
-        <f>+D6</f>
+      <c r="F7" s="32">
+        <f t="shared" ref="F7:M7" si="3">+E7</f>
         <v>0.03</v>
       </c>
-      <c r="F6" s="32">
-        <f t="shared" ref="F6:M6" si="3">+E6</f>
-        <v>0.03</v>
-      </c>
-      <c r="G6" s="32">
+      <c r="G7" s="32">
         <f t="shared" si="3"/>
         <v>0.03</v>
       </c>
-      <c r="H6" s="32">
+      <c r="H7" s="32">
         <f t="shared" si="3"/>
         <v>0.03</v>
       </c>
-      <c r="I6" s="32">
+      <c r="I7" s="32">
         <f t="shared" si="3"/>
         <v>0.03</v>
       </c>
-      <c r="J6" s="32">
+      <c r="J7" s="32">
         <f t="shared" si="3"/>
         <v>0.03</v>
       </c>
-      <c r="K6" s="32">
+      <c r="K7" s="32">
         <f t="shared" si="3"/>
         <v>0.03</v>
       </c>
-      <c r="L6" s="32">
+      <c r="L7" s="32">
         <f t="shared" si="3"/>
         <v>0.03</v>
       </c>
-      <c r="M6" s="32">
+      <c r="M7" s="32">
         <f t="shared" si="3"/>
         <v>0.03</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="16">
-        <f>+C3/$C$5</f>
-        <v>6.4799999999999996E-2</v>
-      </c>
-      <c r="D7" s="16">
-        <f t="shared" ref="D7:M7" si="4">+D3/$C$5</f>
-        <v>6.5771999999999997E-2</v>
-      </c>
-      <c r="E7" s="16">
-        <f t="shared" si="4"/>
-        <v>6.6758579999999998E-2</v>
-      </c>
-      <c r="F7" s="16">
-        <f t="shared" si="4"/>
-        <v>6.7759958699999984E-2</v>
-      </c>
-      <c r="G7" s="16">
-        <f t="shared" si="4"/>
-        <v>6.8776358080499991E-2</v>
-      </c>
-      <c r="H7" s="16">
-        <f t="shared" si="4"/>
-        <v>6.9808003451707484E-2</v>
-      </c>
-      <c r="I7" s="16">
-        <f t="shared" si="4"/>
-        <v>7.0855123503483095E-2</v>
-      </c>
-      <c r="J7" s="16">
-        <f t="shared" si="4"/>
-        <v>7.1917950356035334E-2</v>
-      </c>
-      <c r="K7" s="16">
-        <f t="shared" si="4"/>
-        <v>7.2996719611375854E-2</v>
-      </c>
-      <c r="L7" s="16">
-        <f t="shared" si="4"/>
-        <v>7.4091670405546484E-2</v>
-      </c>
-      <c r="M7" s="16">
-        <f t="shared" si="4"/>
-        <v>7.5203045461629675E-2</v>
-      </c>
-    </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="16">
+        <f>+C3/$C$6</f>
+        <v>5.006E-2</v>
+      </c>
+      <c r="D8" s="16">
+        <f t="shared" ref="D8:M8" si="4">+D3/$C$6</f>
+        <v>5.0810899999999992E-2</v>
+      </c>
+      <c r="E8" s="16">
+        <f t="shared" si="4"/>
+        <v>5.1573063499999988E-2</v>
+      </c>
+      <c r="F8" s="16">
+        <f t="shared" si="4"/>
+        <v>5.2346659452499979E-2</v>
+      </c>
+      <c r="G8" s="16">
+        <f t="shared" si="4"/>
+        <v>5.3131859344287477E-2</v>
+      </c>
+      <c r="H8" s="16">
+        <f t="shared" si="4"/>
+        <v>5.3928837234451785E-2</v>
+      </c>
+      <c r="I8" s="16">
+        <f t="shared" si="4"/>
+        <v>5.4737769792968557E-2</v>
+      </c>
+      <c r="J8" s="16">
+        <f t="shared" si="4"/>
+        <v>5.5558836339863082E-2</v>
+      </c>
+      <c r="K8" s="16">
+        <f t="shared" si="4"/>
+        <v>5.6392218884961022E-2</v>
+      </c>
+      <c r="L8" s="16">
+        <f t="shared" si="4"/>
+        <v>5.7238102168235425E-2</v>
+      </c>
+      <c r="M8" s="16">
+        <f t="shared" si="4"/>
+        <v>5.8096673700758959E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="40">
+      <c r="C9" s="40">
         <v>0</v>
       </c>
-      <c r="D8" s="40">
-        <f t="shared" ref="D8:M8" si="5">+C8+1</f>
+      <c r="D9" s="40">
+        <f t="shared" ref="D9:M9" si="5">+C9+1</f>
         <v>1</v>
       </c>
-      <c r="E8" s="40">
+      <c r="E9" s="40">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="F8" s="40">
+      <c r="F9" s="40">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="G8" s="40">
+      <c r="G9" s="40">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="H8" s="40">
+      <c r="H9" s="40">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="I8" s="40">
+      <c r="I9" s="40">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="J8" s="40">
+      <c r="J9" s="40">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="K8" s="40">
+      <c r="K9" s="40">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="L8" s="40">
+      <c r="L9" s="40">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="M8" s="40">
+      <c r="M9" s="40">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="44">
-        <f>+C3*(1+((C8-$C$8)*$C$12))</f>
-        <v>25920</v>
-      </c>
-      <c r="D9" s="34">
-        <f>+(C9*(1+$C$12)+D3)</f>
-        <v>53913.599999999999</v>
-      </c>
-      <c r="E9" s="34">
-        <f t="shared" ref="E9:M9" si="6">+(D9*(1+$C$12)+E3)</f>
-        <v>84121.415999999997</v>
-      </c>
-      <c r="F9" s="34">
+      <c r="C10" s="44">
+        <f>+C3*(1+((C9-$C$9)*$C$13))-C5</f>
+        <v>15728</v>
+      </c>
+      <c r="D10" s="34">
+        <f>+(C10*(1+$C$13)+D3)-D5</f>
+        <v>31704.679999999993</v>
+      </c>
+      <c r="E10" s="34">
+        <f t="shared" ref="E10:M10" si="6">+(D10*(1+$C$13)+E3)-E5</f>
+        <v>48863.609599999989</v>
+      </c>
+      <c r="F10" s="34">
         <f t="shared" si="6"/>
-        <v>116693.29151999998</v>
-      </c>
-      <c r="G9" s="34">
+        <v>67281.37500499998</v>
+      </c>
+      <c r="G10" s="34">
         <f t="shared" si="6"/>
-        <v>151788.89870099997</v>
-      </c>
-      <c r="H9" s="34">
+        <v>87039.464128039966</v>
+      </c>
+      <c r="H10" s="34">
         <f t="shared" si="6"/>
-        <v>189578.37849724796</v>
-      </c>
-      <c r="I9" s="34">
+        <v>108224.58188044326</v>
+      </c>
+      <c r="I10" s="34">
         <f t="shared" si="6"/>
-        <v>230243.02250096231</v>
-      </c>
-      <c r="J9" s="34">
+        <v>130928.98584086851</v>
+      </c>
+      <c r="J10" s="34">
         <f t="shared" si="6"/>
-        <v>273975.999105939</v>
-      </c>
-      <c r="K9" s="34">
+        <v>155250.84362410943</v>
+      </c>
+      <c r="K10" s="34">
         <f t="shared" si="6"/>
-        <v>320983.12689237535</v>
-      </c>
-      <c r="L9" s="34">
+        <v>181294.61335632941</v>
+      </c>
+      <c r="L10" s="34">
         <f t="shared" si="6"/>
-        <v>371483.69830259832</v>
-      </c>
-      <c r="M9" s="34">
+        <v>209171.44875473346</v>
+      </c>
+      <c r="M10" s="34">
         <f t="shared" si="6"/>
-        <v>425711.35687691905</v>
-      </c>
-      <c r="N9" s="51"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
+        <v>238999.63040693168</v>
+      </c>
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="43">
-        <f t="shared" ref="D10:L10" si="7">+D9+D5</f>
-        <v>465913.59999999998</v>
-      </c>
-      <c r="E10" s="2">
+      <c r="C11" s="28"/>
+      <c r="D11" s="43">
+        <f t="shared" ref="D11:L11" si="7">+D10+D6</f>
+        <v>531704.67999999993</v>
+      </c>
+      <c r="E11" s="2">
         <f t="shared" si="7"/>
-        <v>508481.41599999997</v>
-      </c>
-      <c r="F10" s="2">
+        <v>563863.60959999997</v>
+      </c>
+      <c r="F11" s="2">
         <f t="shared" si="7"/>
-        <v>553784.09152000002</v>
-      </c>
-      <c r="G10" s="2">
+        <v>597731.37500500004</v>
+      </c>
+      <c r="G11" s="2">
         <f t="shared" si="7"/>
-        <v>601992.422701</v>
-      </c>
-      <c r="H10" s="2">
+        <v>633402.96412804001</v>
+      </c>
+      <c r="H11" s="2">
         <f t="shared" si="7"/>
-        <v>653288.0082172479</v>
-      </c>
-      <c r="I10" s="2">
+        <v>670978.98688044329</v>
+      </c>
+      <c r="I11" s="2">
         <f t="shared" si="7"/>
-        <v>707863.94111256232</v>
-      </c>
-      <c r="J10" s="2">
+        <v>710566.02299086854</v>
+      </c>
+      <c r="J11" s="2">
         <f t="shared" si="7"/>
-        <v>765925.54527588701</v>
-      </c>
-      <c r="K10" s="2">
+        <v>752276.99188860937</v>
+      </c>
+      <c r="K11" s="2">
         <f t="shared" si="7"/>
-        <v>827691.15944742179</v>
-      </c>
-      <c r="L10" s="2">
+        <v>796231.54606876441</v>
+      </c>
+      <c r="L11" s="2">
         <f t="shared" si="7"/>
-        <v>893392.97183429613</v>
-      </c>
-      <c r="M10" s="2">
-        <f>+M9+M5</f>
-        <v>963277.90861456783</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
+        <v>842556.48944854154</v>
+      </c>
+      <c r="M11" s="2">
+        <f>+M10+M6</f>
+        <v>891386.22232155409</v>
+      </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="32">
-        <v>6.5000000000000002E-2</v>
-      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="28"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -2261,130 +2360,134 @@
       <c r="M12" s="2"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="M13" s="27" t="s">
+      <c r="B13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="32">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M14" s="27" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="35" t="s">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="41">
-        <f t="shared" ref="D14:M14" si="8">+(D10/$C$5)^(1/(D8))-1</f>
-        <v>0.16478400000000004</v>
-      </c>
-      <c r="E14" s="41">
+      <c r="C15" s="36"/>
+      <c r="D15" s="41">
+        <f t="shared" ref="D15:M15" si="8">+(D11/$C$6)^(1/(D9))-1</f>
+        <v>0.32926169999999977</v>
+      </c>
+      <c r="E15" s="41">
         <f t="shared" si="8"/>
-        <v>0.12747662503486068</v>
-      </c>
-      <c r="F14" s="41">
+        <v>0.18729062322583845</v>
+      </c>
+      <c r="F15" s="41">
         <f t="shared" si="8"/>
-        <v>0.11453444439497917</v>
-      </c>
-      <c r="G14" s="41">
+        <v>0.14326968296134268</v>
+      </c>
+      <c r="G15" s="41">
         <f t="shared" si="8"/>
-        <v>0.10759951874445139</v>
-      </c>
-      <c r="H14" s="41">
+        <v>0.12177310918525142</v>
+      </c>
+      <c r="H15" s="41">
         <f t="shared" si="8"/>
-        <v>0.10308489842129887</v>
-      </c>
-      <c r="I14" s="41">
+        <v>0.10899550443533168</v>
+      </c>
+      <c r="I15" s="41">
         <f t="shared" si="8"/>
-        <v>9.9803168161532341E-2</v>
-      </c>
-      <c r="J14" s="41">
+        <v>0.10050175876433021</v>
+      </c>
+      <c r="J15" s="41">
         <f t="shared" si="8"/>
-        <v>9.7245465455436442E-2</v>
-      </c>
-      <c r="K14" s="41">
+        <v>9.4430670848373977E-2</v>
+      </c>
+      <c r="K15" s="41">
         <f t="shared" si="8"/>
-        <v>9.5156135643802431E-2</v>
-      </c>
-      <c r="L14" s="41">
+        <v>8.9864291667162588E-2</v>
+      </c>
+      <c r="L15" s="41">
         <f t="shared" si="8"/>
-        <v>9.3391863640887696E-2</v>
-      </c>
-      <c r="M14" s="42">
+        <v>8.6297504475235431E-2</v>
+      </c>
+      <c r="M15" s="42">
         <f t="shared" si="8"/>
-        <v>9.1865543344687772E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="37" t="s">
+        <v>8.3429340455819734E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="38">
-        <f>+D10/$C$5-1</f>
-        <v>0.16478400000000004</v>
-      </c>
-      <c r="E15" s="38">
-        <f t="shared" ref="E15:M15" si="9">+E10/$C$5-1</f>
-        <v>0.27120353999999991</v>
-      </c>
-      <c r="F15" s="38">
+      <c r="C16" s="5"/>
+      <c r="D16" s="38">
+        <f>+D11/$C$6-1</f>
+        <v>0.32926169999999977</v>
+      </c>
+      <c r="E16" s="38">
+        <f t="shared" ref="E16:M16" si="9">+E11/$C$6-1</f>
+        <v>0.40965902399999998</v>
+      </c>
+      <c r="F16" s="38">
         <f t="shared" si="9"/>
-        <v>0.38446022880000008</v>
-      </c>
-      <c r="G15" s="38">
+        <v>0.49432843751250011</v>
+      </c>
+      <c r="G16" s="38">
         <f t="shared" si="9"/>
-        <v>0.50498105675249993</v>
-      </c>
-      <c r="H15" s="38">
+        <v>0.58350741032010012</v>
+      </c>
+      <c r="H16" s="38">
         <f t="shared" si="9"/>
-        <v>0.63322002054311977</v>
-      </c>
-      <c r="I15" s="38">
+        <v>0.67744746720110816</v>
+      </c>
+      <c r="I16" s="38">
         <f t="shared" si="9"/>
-        <v>0.76965985278140581</v>
-      </c>
-      <c r="J15" s="38">
+        <v>0.77641505747717132</v>
+      </c>
+      <c r="J16" s="38">
         <f t="shared" si="9"/>
-        <v>0.91481386318971758</v>
-      </c>
-      <c r="K15" s="38">
+        <v>0.88069247972152342</v>
+      </c>
+      <c r="K16" s="38">
         <f t="shared" si="9"/>
-        <v>1.0692278986185544</v>
-      </c>
-      <c r="L15" s="38">
+        <v>0.99057886517191096</v>
+      </c>
+      <c r="L16" s="38">
         <f t="shared" si="9"/>
-        <v>1.2334824295857403</v>
-      </c>
-      <c r="M15" s="39">
+        <v>1.1063912236213538</v>
+      </c>
+      <c r="M16" s="39">
         <f t="shared" si="9"/>
-        <v>1.4081947715364196</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
-    </row>
-    <row r="19" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="2"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
+        <v>1.2284655558038851</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
+    </row>
+    <row r="20" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="28"/>
       <c r="D20" s="28"/>
       <c r="E20" s="28"/>
@@ -2396,6 +2499,7 @@
       <c r="K20" s="28"/>
       <c r="L20" s="28"/>
       <c r="M20" s="28"/>
+      <c r="N20" s="2"/>
     </row>
     <row r="21" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C21" s="28"/>
@@ -2501,22 +2605,35 @@
       <c r="L28" s="28"/>
       <c r="M28" s="28"/>
     </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="43"/>
-      <c r="N30" s="2"/>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="43"/>
+      <c r="N31" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D14:M14">
+  <conditionalFormatting sqref="D15:M15">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>

--- a/55 Commonwealth.xlsx
+++ b/55 Commonwealth.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minhv\OneDrive\Documents\GitHub\cre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D796B0-B172-463A-A8D2-548A05009DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EEF4CF0-EB16-4C99-A9FB-65340C803BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" activeTab="1" xr2:uid="{7A873A23-259D-4B7A-963D-AC41161A29D2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{7A873A23-259D-4B7A-963D-AC41161A29D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sensitivity Calculation" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
   <si>
     <t>Purchase Price</t>
   </si>
@@ -145,6 +145,12 @@
   </si>
   <si>
     <t>Property Tax Rate</t>
+  </si>
+  <si>
+    <t>Post Tax-Sensitivity Table</t>
+  </si>
+  <si>
+    <t>Massachusetts' Income Tax</t>
   </si>
 </sst>
 </file>
@@ -433,7 +439,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -493,15 +499,9 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="3" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -511,13 +511,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="3" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -831,14 +832,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>96716</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>126756</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>145806</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>183907</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>161193</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>180243</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -853,8 +854,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7987812" y="3365256"/>
-          <a:ext cx="1911595" cy="796437"/>
+          <a:off x="7992941" y="3384306"/>
+          <a:ext cx="1915991" cy="796437"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1216,10 +1217,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{697FDD06-7325-47FF-B14A-6233C127E75E}">
-  <dimension ref="B2:K25"/>
+  <dimension ref="B2:K34"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16:K22"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1244,13 +1245,13 @@
       <c r="C3" s="29">
         <v>400000</v>
       </c>
-      <c r="G3" s="45" t="s">
+      <c r="G3" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="47"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="53"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
@@ -1323,7 +1324,7 @@
         <v>0.50000000000000011</v>
       </c>
       <c r="G6" s="21">
-        <f t="shared" ref="G6:K11" si="2">((+G$4*$F6*12)-$C$16-$C$20)/$C$5</f>
+        <f t="shared" ref="G6:G11" si="2">((+G$4*$F6*12)-$C$16-$C$20)/$C$5</f>
         <v>1.6760000000000008E-2</v>
       </c>
       <c r="H6" s="22">
@@ -1509,10 +1510,10 @@
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="54">
+      <c r="C12" s="47">
         <f>+IF(LOWER(C10)="no",C9,C8)</f>
         <v>150</v>
       </c>
@@ -1521,30 +1522,30 @@
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="54">
+      <c r="C13" s="47">
         <f>+IF(LOWER(C11)="no",C8,0)</f>
         <v>217</v>
       </c>
       <c r="K13" s="27"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="54">
+      <c r="C14" s="47">
         <f>+C7+SUM(C12:C13)</f>
         <v>2767</v>
       </c>
-      <c r="G14" s="45" t="s">
+      <c r="G14" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="47"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="53"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
@@ -1576,65 +1577,65 @@
       </c>
     </row>
     <row r="16" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="55" t="s">
+      <c r="B16" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="52">
+      <c r="C16" s="46">
         <v>1600</v>
       </c>
       <c r="E16" s="48" t="s">
         <v>4</v>
       </c>
       <c r="F16" s="16">
-        <f>+F5</f>
+        <f t="shared" ref="F16:F22" si="3">+F5</f>
         <v>0.40000000000000013</v>
       </c>
       <c r="G16" s="18">
         <f>+G5+$C$24</f>
-        <v>3.0460000000000008E-2</v>
+        <v>5.0460000000000012E-2</v>
       </c>
       <c r="H16" s="19">
-        <f t="shared" ref="H16:K16" si="3">+H5+$C$24</f>
-        <v>3.2260000000000011E-2</v>
+        <f t="shared" ref="H16:K16" si="4">+H5+$C$24</f>
+        <v>5.2260000000000008E-2</v>
       </c>
       <c r="I16" s="19">
-        <f t="shared" si="3"/>
-        <v>3.4060000000000007E-2</v>
+        <f t="shared" si="4"/>
+        <v>5.4060000000000011E-2</v>
       </c>
       <c r="J16" s="19">
-        <f t="shared" si="3"/>
-        <v>3.586000000000001E-2</v>
+        <f t="shared" si="4"/>
+        <v>5.5860000000000007E-2</v>
       </c>
       <c r="K16" s="20">
-        <f t="shared" si="3"/>
-        <v>3.7660000000000013E-2</v>
+        <f t="shared" si="4"/>
+        <v>5.7660000000000017E-2</v>
       </c>
     </row>
     <row r="17" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E17" s="49"/>
       <c r="F17" s="16">
-        <f>+F6</f>
+        <f t="shared" si="3"/>
         <v>0.50000000000000011</v>
       </c>
       <c r="G17" s="21">
-        <f t="shared" ref="G17:K17" si="4">+G6+$C$24</f>
-        <v>3.6760000000000008E-2</v>
+        <f t="shared" ref="G17:K17" si="5">+G6+$C$24</f>
+        <v>5.6760000000000005E-2</v>
       </c>
       <c r="H17" s="22">
-        <f t="shared" si="4"/>
-        <v>3.901000000000001E-2</v>
+        <f t="shared" si="5"/>
+        <v>5.9010000000000007E-2</v>
       </c>
       <c r="I17" s="22">
-        <f t="shared" si="4"/>
-        <v>4.1260000000000005E-2</v>
+        <f t="shared" si="5"/>
+        <v>6.1260000000000009E-2</v>
       </c>
       <c r="J17" s="22">
-        <f t="shared" si="4"/>
-        <v>4.3510000000000007E-2</v>
+        <f t="shared" si="5"/>
+        <v>6.3510000000000011E-2</v>
       </c>
       <c r="K17" s="23">
-        <f t="shared" si="4"/>
-        <v>4.5760000000000009E-2</v>
+        <f t="shared" si="5"/>
+        <v>6.5760000000000013E-2</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
@@ -1646,96 +1647,96 @@
       </c>
       <c r="E18" s="49"/>
       <c r="F18" s="16">
-        <f>+F7</f>
+        <f t="shared" si="3"/>
         <v>0.60000000000000009</v>
       </c>
       <c r="G18" s="21">
-        <f t="shared" ref="G18:K18" si="5">+G7+$C$24</f>
-        <v>4.3060000000000008E-2</v>
+        <f t="shared" ref="G18:K18" si="6">+G7+$C$24</f>
+        <v>6.3060000000000005E-2</v>
       </c>
       <c r="H18" s="22">
-        <f t="shared" si="5"/>
-        <v>4.5760000000000009E-2</v>
+        <f t="shared" si="6"/>
+        <v>6.5760000000000013E-2</v>
       </c>
       <c r="I18" s="22">
-        <f t="shared" si="5"/>
-        <v>4.846000000000001E-2</v>
+        <f t="shared" si="6"/>
+        <v>6.8460000000000007E-2</v>
       </c>
       <c r="J18" s="22">
-        <f t="shared" si="5"/>
-        <v>5.1160000000000011E-2</v>
+        <f t="shared" si="6"/>
+        <v>7.1160000000000015E-2</v>
       </c>
       <c r="K18" s="23">
-        <f t="shared" si="5"/>
-        <v>5.3860000000000005E-2</v>
+        <f t="shared" si="6"/>
+        <v>7.3860000000000009E-2</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="51">
+      <c r="C19" s="45">
         <f>+C16</f>
         <v>1600</v>
       </c>
       <c r="E19" s="49"/>
       <c r="F19" s="16">
-        <f>+F8</f>
+        <f t="shared" si="3"/>
         <v>0.70000000000000007</v>
       </c>
       <c r="G19" s="21">
-        <f t="shared" ref="G19:K19" si="6">+G8+$C$24</f>
-        <v>4.9360000000000008E-2</v>
+        <f t="shared" ref="G19:K19" si="7">+G8+$C$24</f>
+        <v>6.9360000000000005E-2</v>
       </c>
       <c r="H19" s="22">
-        <f t="shared" si="6"/>
-        <v>5.2510000000000015E-2</v>
+        <f t="shared" si="7"/>
+        <v>7.2510000000000019E-2</v>
       </c>
       <c r="I19" s="22">
-        <f t="shared" si="6"/>
-        <v>5.5660000000000015E-2</v>
+        <f t="shared" si="7"/>
+        <v>7.5660000000000005E-2</v>
       </c>
       <c r="J19" s="22">
-        <f t="shared" si="6"/>
-        <v>5.8810000000000015E-2</v>
+        <f t="shared" si="7"/>
+        <v>7.8810000000000019E-2</v>
       </c>
       <c r="K19" s="23">
-        <f t="shared" si="6"/>
-        <v>6.1960000000000015E-2</v>
+        <f t="shared" si="7"/>
+        <v>8.1960000000000005E-2</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="51">
+      <c r="C20" s="45">
         <f>+C5*C25</f>
         <v>4296</v>
       </c>
       <c r="E20" s="49"/>
       <c r="F20" s="16">
-        <f>+F9</f>
+        <f t="shared" si="3"/>
         <v>0.8</v>
       </c>
       <c r="G20" s="21">
-        <f>+G9+$C$24</f>
-        <v>5.5660000000000001E-2</v>
+        <f t="shared" ref="G20:K22" si="8">+G9+$C$24</f>
+        <v>7.5660000000000005E-2</v>
       </c>
       <c r="H20" s="22">
-        <f>+H9+$C$24</f>
-        <v>5.9260000000000007E-2</v>
+        <f t="shared" si="8"/>
+        <v>7.9259999999999997E-2</v>
       </c>
       <c r="I20" s="22">
-        <f>+I9+$C$24</f>
-        <v>6.2859999999999999E-2</v>
+        <f t="shared" si="8"/>
+        <v>8.2860000000000003E-2</v>
       </c>
       <c r="J20" s="22">
-        <f>+J9+$C$24</f>
-        <v>6.6460000000000005E-2</v>
+        <f t="shared" si="8"/>
+        <v>8.6460000000000009E-2</v>
       </c>
       <c r="K20" s="23">
-        <f>+K9+$C$24</f>
-        <v>7.0059999999999997E-2</v>
+        <f t="shared" si="8"/>
+        <v>9.0060000000000001E-2</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
@@ -1748,28 +1749,28 @@
       </c>
       <c r="E21" s="49"/>
       <c r="F21" s="16">
-        <f>+F10</f>
+        <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
       <c r="G21" s="21">
-        <f>+G10+$C$24</f>
-        <v>6.1960000000000001E-2</v>
+        <f t="shared" si="8"/>
+        <v>8.1960000000000005E-2</v>
       </c>
       <c r="H21" s="22">
-        <f>+H10+$C$24</f>
-        <v>6.6009999999999999E-2</v>
+        <f t="shared" si="8"/>
+        <v>8.6010000000000003E-2</v>
       </c>
       <c r="I21" s="22">
-        <f>+I10+$C$24</f>
-        <v>7.0059999999999997E-2</v>
+        <f t="shared" si="8"/>
+        <v>9.0060000000000001E-2</v>
       </c>
       <c r="J21" s="22">
-        <f>+J10+$C$24</f>
-        <v>7.4109999999999995E-2</v>
+        <f t="shared" si="8"/>
+        <v>9.4109999999999999E-2</v>
       </c>
       <c r="K21" s="23">
-        <f>+K10+$C$24</f>
-        <v>7.8160000000000007E-2</v>
+        <f t="shared" si="8"/>
+        <v>9.8159999999999997E-2</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
@@ -1782,28 +1783,28 @@
       </c>
       <c r="E22" s="50"/>
       <c r="F22" s="16">
-        <f>+F11</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G22" s="24">
-        <f>+G11+$C$24</f>
-        <v>6.8260000000000001E-2</v>
+        <f t="shared" si="8"/>
+        <v>8.8260000000000005E-2</v>
       </c>
       <c r="H22" s="25">
-        <f>+H11+$C$24</f>
-        <v>7.2760000000000005E-2</v>
+        <f t="shared" si="8"/>
+        <v>9.2760000000000009E-2</v>
       </c>
       <c r="I22" s="25">
-        <f>+I11+$C$24</f>
-        <v>7.7259999999999995E-2</v>
+        <f t="shared" si="8"/>
+        <v>9.7259999999999999E-2</v>
       </c>
       <c r="J22" s="25">
-        <f>+J11+$C$24</f>
-        <v>8.1759999999999999E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.10176</v>
       </c>
       <c r="K22" s="26">
-        <f>+K11+$C$24</f>
-        <v>8.6260000000000003E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.10625999999999999</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
@@ -1816,7 +1817,7 @@
         <v>19</v>
       </c>
       <c r="C24" s="31">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
@@ -1826,16 +1827,249 @@
       <c r="C25" s="31">
         <v>1.074E-2</v>
       </c>
+      <c r="G25" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="53"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="31">
+        <v>0.187967</v>
+      </c>
+      <c r="G26" s="2">
+        <f>+G15</f>
+        <v>2100</v>
+      </c>
+      <c r="H26" s="2">
+        <f>+H15</f>
+        <v>2250</v>
+      </c>
+      <c r="I26" s="2">
+        <f>+I15</f>
+        <v>2400</v>
+      </c>
+      <c r="J26" s="2">
+        <f>+J15</f>
+        <v>2550</v>
+      </c>
+      <c r="K26" s="2">
+        <f>+K15</f>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E27" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="16">
+        <f t="shared" ref="F27:F33" si="9">+F16</f>
+        <v>0.40000000000000013</v>
+      </c>
+      <c r="G27" s="18">
+        <f>+(G5*(1-$C$26))+$C$24</f>
+        <v>4.8493865180000012E-2</v>
+      </c>
+      <c r="H27" s="19">
+        <f t="shared" ref="H27:K27" si="10">+(H5*(1-$C$26))+$C$24</f>
+        <v>4.9955524580000008E-2</v>
+      </c>
+      <c r="I27" s="19">
+        <f t="shared" si="10"/>
+        <v>5.141718398000001E-2</v>
+      </c>
+      <c r="J27" s="19">
+        <f t="shared" si="10"/>
+        <v>5.2878843380000012E-2</v>
+      </c>
+      <c r="K27" s="20">
+        <f t="shared" si="10"/>
+        <v>5.4340502780000008E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E28" s="49"/>
+      <c r="F28" s="16">
+        <f t="shared" si="9"/>
+        <v>0.50000000000000011</v>
+      </c>
+      <c r="G28" s="21">
+        <f t="shared" ref="G28:K28" si="11">+(G6*(1-$C$26))+$C$24</f>
+        <v>5.3609673080000003E-2</v>
+      </c>
+      <c r="H28" s="22">
+        <f t="shared" si="11"/>
+        <v>5.5436747330000008E-2</v>
+      </c>
+      <c r="I28" s="22">
+        <f t="shared" si="11"/>
+        <v>5.7263821580000006E-2</v>
+      </c>
+      <c r="J28" s="22">
+        <f t="shared" si="11"/>
+        <v>5.9090895830000011E-2</v>
+      </c>
+      <c r="K28" s="23">
+        <f t="shared" si="11"/>
+        <v>6.0917970080000008E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E29" s="49"/>
+      <c r="F29" s="16">
+        <f t="shared" si="9"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="G29" s="21">
+        <f t="shared" ref="G29:K29" si="12">+(G7*(1-$C$26))+$C$24</f>
+        <v>5.8725480980000008E-2</v>
+      </c>
+      <c r="H29" s="22">
+        <f t="shared" si="12"/>
+        <v>6.0917970080000008E-2</v>
+      </c>
+      <c r="I29" s="22">
+        <f t="shared" si="12"/>
+        <v>6.3110459180000009E-2</v>
+      </c>
+      <c r="J29" s="22">
+        <f t="shared" si="12"/>
+        <v>6.5302948280000009E-2</v>
+      </c>
+      <c r="K29" s="23">
+        <f t="shared" si="12"/>
+        <v>6.7495437380000009E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E30" s="49"/>
+      <c r="F30" s="16">
+        <f t="shared" si="9"/>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="G30" s="21">
+        <f t="shared" ref="G30:K30" si="13">+(G8*(1-$C$26))+$C$24</f>
+        <v>6.3841288880000013E-2</v>
+      </c>
+      <c r="H30" s="22">
+        <f t="shared" si="13"/>
+        <v>6.6399192830000009E-2</v>
+      </c>
+      <c r="I30" s="22">
+        <f t="shared" si="13"/>
+        <v>6.8957096780000005E-2</v>
+      </c>
+      <c r="J30" s="22">
+        <f t="shared" si="13"/>
+        <v>7.151500073E-2</v>
+      </c>
+      <c r="K30" s="23">
+        <f t="shared" si="13"/>
+        <v>7.407290468000001E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E31" s="49"/>
+      <c r="F31" s="16">
+        <f t="shared" si="9"/>
+        <v>0.8</v>
+      </c>
+      <c r="G31" s="21">
+        <f t="shared" ref="G31:K31" si="14">+(G9*(1-$C$26))+$C$24</f>
+        <v>6.8957096780000005E-2</v>
+      </c>
+      <c r="H31" s="22">
+        <f t="shared" si="14"/>
+        <v>7.1880415579999996E-2</v>
+      </c>
+      <c r="I31" s="22">
+        <f t="shared" si="14"/>
+        <v>7.480373438E-2</v>
+      </c>
+      <c r="J31" s="22">
+        <f t="shared" si="14"/>
+        <v>7.7727053180000005E-2</v>
+      </c>
+      <c r="K31" s="23">
+        <f t="shared" si="14"/>
+        <v>8.0650371979999996E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E32" s="49"/>
+      <c r="F32" s="16">
+        <f t="shared" si="9"/>
+        <v>0.9</v>
+      </c>
+      <c r="G32" s="21">
+        <f t="shared" ref="G32:K32" si="15">+(G10*(1-$C$26))+$C$24</f>
+        <v>7.4072904679999996E-2</v>
+      </c>
+      <c r="H32" s="22">
+        <f t="shared" si="15"/>
+        <v>7.736163833000001E-2</v>
+      </c>
+      <c r="I32" s="22">
+        <f t="shared" si="15"/>
+        <v>8.0650371979999996E-2</v>
+      </c>
+      <c r="J32" s="22">
+        <f t="shared" si="15"/>
+        <v>8.3939105629999997E-2</v>
+      </c>
+      <c r="K32" s="23">
+        <f t="shared" si="15"/>
+        <v>8.7227839279999997E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E33" s="50"/>
+      <c r="F33" s="16">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="G33" s="24">
+        <f t="shared" ref="G33:K33" si="16">+(G11*(1-$C$26))+$C$24</f>
+        <v>7.9188712580000001E-2</v>
+      </c>
+      <c r="H33" s="25">
+        <f t="shared" si="16"/>
+        <v>8.2842861079999996E-2</v>
+      </c>
+      <c r="I33" s="25">
+        <f t="shared" si="16"/>
+        <v>8.6497009580000006E-2</v>
+      </c>
+      <c r="J33" s="25">
+        <f t="shared" si="16"/>
+        <v>9.0151158080000002E-2</v>
+      </c>
+      <c r="K33" s="26">
+        <f t="shared" si="16"/>
+        <v>9.3805306579999997E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="K34" s="27" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="E27:E33"/>
     <mergeCell ref="E16:E22"/>
     <mergeCell ref="G3:K3"/>
     <mergeCell ref="E5:E11"/>
     <mergeCell ref="G14:K14"/>
+    <mergeCell ref="G25:K25"/>
   </mergeCells>
   <conditionalFormatting sqref="G5:K11">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1847,7 +2081,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:K22">
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27:K33">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1867,8 +2113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB0454E-0A8B-4165-9454-0DD93CF26789}">
   <dimension ref="B2:N31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2012,7 +2258,7 @@
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="33" t="s">
         <v>34</v>
       </c>
       <c r="C5" s="28">
@@ -2021,43 +2267,43 @@
       </c>
       <c r="D5" s="28">
         <f>+D6*'Sensitivity Calculation'!$C$25</f>
-        <v>5370</v>
+        <v>4467.84</v>
       </c>
       <c r="E5" s="28">
         <f>+E6*'Sensitivity Calculation'!$C$25</f>
-        <v>5531.0999999999995</v>
+        <v>4646.5536000000002</v>
       </c>
       <c r="F5" s="28">
         <f>+F6*'Sensitivity Calculation'!$C$25</f>
-        <v>5697.0329999999994</v>
+        <v>4832.4157439999999</v>
       </c>
       <c r="G5" s="28">
         <f>+G6*'Sensitivity Calculation'!$C$25</f>
-        <v>5867.9439899999998</v>
+        <v>5025.7123737600004</v>
       </c>
       <c r="H5" s="28">
         <f>+H6*'Sensitivity Calculation'!$C$25</f>
-        <v>6043.9823096999999</v>
+        <v>5226.7408687104007</v>
       </c>
       <c r="I5" s="28">
         <f>+I6*'Sensitivity Calculation'!$C$25</f>
-        <v>6225.301778991</v>
+        <v>5435.810503458817</v>
       </c>
       <c r="J5" s="28">
         <f>+J6*'Sensitivity Calculation'!$C$25</f>
-        <v>6412.0608323607294</v>
+        <v>5653.2429235971704</v>
       </c>
       <c r="K5" s="28">
         <f>+K6*'Sensitivity Calculation'!$C$25</f>
-        <v>6604.4226573315518</v>
+        <v>5879.3726405410571</v>
       </c>
       <c r="L5" s="28">
         <f>+L6*'Sensitivity Calculation'!$C$25</f>
-        <v>6802.555337051499</v>
+        <v>6114.5475461626993</v>
       </c>
       <c r="M5" s="28">
         <f>+M6*'Sensitivity Calculation'!$C$25</f>
-        <v>7006.6319971630437</v>
+        <v>6359.1294480092083</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
@@ -2070,43 +2316,43 @@
       </c>
       <c r="D6" s="2">
         <f t="shared" ref="D6:M6" si="2">+C6*(1+D7)</f>
-        <v>500000</v>
+        <v>416000</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" si="2"/>
-        <v>515000</v>
+        <v>432640</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" si="2"/>
-        <v>530450</v>
+        <v>449945.60000000003</v>
       </c>
       <c r="G6" s="2">
         <f t="shared" si="2"/>
-        <v>546363.5</v>
+        <v>467943.42400000006</v>
       </c>
       <c r="H6" s="2">
         <f t="shared" si="2"/>
-        <v>562754.40500000003</v>
+        <v>486661.16096000007</v>
       </c>
       <c r="I6" s="2">
         <f t="shared" si="2"/>
-        <v>579637.03714999999</v>
+        <v>506127.60739840008</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" si="2"/>
-        <v>597026.14826449996</v>
+        <v>526372.71169433615</v>
       </c>
       <c r="K6" s="2">
         <f t="shared" si="2"/>
-        <v>614936.93271243502</v>
+        <v>547427.62016210961</v>
       </c>
       <c r="L6" s="2">
         <f t="shared" si="2"/>
-        <v>633385.04069380811</v>
+        <v>569324.72496859403</v>
       </c>
       <c r="M6" s="2">
         <f t="shared" si="2"/>
-        <v>652386.59191462235</v>
+        <v>592097.71396733786</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
@@ -2114,42 +2360,43 @@
         <v>22</v>
       </c>
       <c r="D7" s="32">
-        <v>0.25</v>
+        <v>0.04</v>
       </c>
       <c r="E7" s="32">
-        <v>0.03</v>
+        <f>+D7</f>
+        <v>0.04</v>
       </c>
       <c r="F7" s="32">
         <f t="shared" ref="F7:M7" si="3">+E7</f>
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G7" s="32">
         <f t="shared" si="3"/>
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="H7" s="32">
         <f t="shared" si="3"/>
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="I7" s="32">
         <f t="shared" si="3"/>
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="J7" s="32">
         <f t="shared" si="3"/>
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="K7" s="32">
         <f t="shared" si="3"/>
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="L7" s="32">
         <f t="shared" si="3"/>
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="M7" s="32">
         <f t="shared" si="3"/>
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
@@ -2259,43 +2506,43 @@
       </c>
       <c r="D10" s="34">
         <f>+(C10*(1+$C$13)+D3)-D5</f>
-        <v>31704.679999999993</v>
+        <v>32606.839999999993</v>
       </c>
       <c r="E10" s="34">
         <f t="shared" ref="E10:M10" si="6">+(D10*(1+$C$13)+E3)-E5</f>
-        <v>48863.609599999989</v>
+        <v>50708.956399999988</v>
       </c>
       <c r="F10" s="34">
         <f t="shared" si="6"/>
-        <v>67281.37500499998</v>
+        <v>70111.286602999986</v>
       </c>
       <c r="G10" s="34">
         <f t="shared" si="6"/>
-        <v>87039.464128039966</v>
+        <v>90895.551596149962</v>
       </c>
       <c r="H10" s="34">
         <f t="shared" si="6"/>
-        <v>108224.58188044326</v>
+        <v>113148.55647497001</v>
       </c>
       <c r="I10" s="34">
         <f t="shared" si="6"/>
-        <v>130928.98584086851</v>
+        <v>136962.51005957168</v>
       </c>
       <c r="J10" s="34">
         <f t="shared" si="6"/>
-        <v>155250.84362410943</v>
+        <v>162435.36482579191</v>
       </c>
       <c r="K10" s="34">
         <f t="shared" si="6"/>
-        <v>181294.61335632941</v>
+        <v>189671.17845291173</v>
       </c>
       <c r="L10" s="34">
         <f t="shared" si="6"/>
-        <v>209171.44875473346</v>
+        <v>218780.49837348243</v>
       </c>
       <c r="M10" s="34">
         <f t="shared" si="6"/>
-        <v>238999.63040693168</v>
+        <v>249880.77080005314</v>
       </c>
       <c r="N10" s="2"/>
     </row>
@@ -2306,43 +2553,43 @@
       <c r="C11" s="28"/>
       <c r="D11" s="43">
         <f t="shared" ref="D11:L11" si="7">+D10+D6</f>
-        <v>531704.67999999993</v>
+        <v>448606.83999999997</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="7"/>
-        <v>563863.60959999997</v>
+        <v>483348.95639999997</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" si="7"/>
-        <v>597731.37500500004</v>
+        <v>520056.88660299999</v>
       </c>
       <c r="G11" s="2">
         <f t="shared" si="7"/>
-        <v>633402.96412804001</v>
+        <v>558838.97559615003</v>
       </c>
       <c r="H11" s="2">
         <f t="shared" si="7"/>
-        <v>670978.98688044329</v>
+        <v>599809.71743497008</v>
       </c>
       <c r="I11" s="2">
         <f t="shared" si="7"/>
-        <v>710566.02299086854</v>
+        <v>643090.11745797179</v>
       </c>
       <c r="J11" s="2">
         <f t="shared" si="7"/>
-        <v>752276.99188860937</v>
+        <v>688808.07652012806</v>
       </c>
       <c r="K11" s="2">
         <f t="shared" si="7"/>
-        <v>796231.54606876441</v>
+        <v>737098.7986150214</v>
       </c>
       <c r="L11" s="2">
         <f t="shared" si="7"/>
-        <v>842556.48944854154</v>
+        <v>788105.22334207641</v>
       </c>
       <c r="M11" s="2">
         <f>+M10+M6</f>
-        <v>891386.22232155409</v>
+        <v>841978.484767391</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
@@ -2389,43 +2636,43 @@
       <c r="C15" s="36"/>
       <c r="D15" s="41">
         <f t="shared" ref="D15:M15" si="8">+(D11/$C$6)^(1/(D9))-1</f>
-        <v>0.32926169999999977</v>
+        <v>0.12151709999999993</v>
       </c>
       <c r="E15" s="41">
         <f t="shared" si="8"/>
-        <v>0.18729062322583845</v>
+        <v>9.9259928770261352E-2</v>
       </c>
       <c r="F15" s="41">
         <f t="shared" si="8"/>
-        <v>0.14326968296134268</v>
+        <v>9.1432680093024299E-2</v>
       </c>
       <c r="G15" s="41">
         <f t="shared" si="8"/>
-        <v>0.12177310918525142</v>
+        <v>8.7193066720410162E-2</v>
       </c>
       <c r="H15" s="41">
         <f t="shared" si="8"/>
-        <v>0.10899550443533168</v>
+        <v>8.4402977113493094E-2</v>
       </c>
       <c r="I15" s="41">
         <f t="shared" si="8"/>
-        <v>0.10050175876433021</v>
+        <v>8.2352290957572016E-2</v>
       </c>
       <c r="J15" s="41">
         <f t="shared" si="8"/>
-        <v>9.4430670848373977E-2</v>
+        <v>8.0736323885628236E-2</v>
       </c>
       <c r="K15" s="41">
         <f t="shared" si="8"/>
-        <v>8.9864291667162588E-2</v>
+        <v>7.9401989010337903E-2</v>
       </c>
       <c r="L15" s="41">
         <f t="shared" si="8"/>
-        <v>8.6297504475235431E-2</v>
+        <v>7.8263520990292879E-2</v>
       </c>
       <c r="M15" s="42">
         <f t="shared" si="8"/>
-        <v>8.3429340455819734E-2</v>
+        <v>7.7268845483371429E-2</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
@@ -2435,43 +2682,43 @@
       <c r="C16" s="5"/>
       <c r="D16" s="38">
         <f>+D11/$C$6-1</f>
-        <v>0.32926169999999977</v>
+        <v>0.12151709999999993</v>
       </c>
       <c r="E16" s="38">
         <f t="shared" ref="E16:M16" si="9">+E11/$C$6-1</f>
-        <v>0.40965902399999998</v>
+        <v>0.20837239099999993</v>
       </c>
       <c r="F16" s="38">
         <f t="shared" si="9"/>
-        <v>0.49432843751250011</v>
+        <v>0.30014221650750006</v>
       </c>
       <c r="G16" s="38">
         <f t="shared" si="9"/>
-        <v>0.58350741032010012</v>
+        <v>0.3970974389903752</v>
       </c>
       <c r="H16" s="38">
         <f t="shared" si="9"/>
-        <v>0.67744746720110816</v>
+        <v>0.49952429358742512</v>
       </c>
       <c r="I16" s="38">
         <f t="shared" si="9"/>
-        <v>0.77641505747717132</v>
+        <v>0.60772529364492955</v>
       </c>
       <c r="J16" s="38">
         <f t="shared" si="9"/>
-        <v>0.88069247972152342</v>
+        <v>0.72202019130032014</v>
       </c>
       <c r="K16" s="38">
         <f t="shared" si="9"/>
-        <v>0.99057886517191096</v>
+        <v>0.84274699653755358</v>
       </c>
       <c r="L16" s="38">
         <f t="shared" si="9"/>
-        <v>1.1063912236213538</v>
+        <v>0.970263058355191</v>
       </c>
       <c r="M16" s="39">
         <f t="shared" si="9"/>
-        <v>1.2284655558038851</v>
+        <v>1.1049462119184774</v>
       </c>
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.25">
